--- a/data/hotels_by_city/Dallas/Dallas_shard_784.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_784.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,770 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r510757900-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>56789</t>
+  </si>
+  <si>
+    <t>816266</t>
+  </si>
+  <si>
+    <t>510757900</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>If you are looking for a budget extended stay this is place. Its located near a lot of great eateries and shopping. Cleaning service is only done every weeks. You have to check out utensils,cookware and the iron from the front desk. Towels arent replenised daily. I stayed on the 4th floor and the smell was awful from other tenants cooking. My entire 13 days the smell was awful up there.I made a complaint about it and I was told to deal with! And that I had a choice to go elsewhere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r491610665-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>491610665</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Very impressed</t>
+  </si>
+  <si>
+    <t>This recently hotel recently rebranded from ValuePlace to Woodspring Suites.I have been nothing but impressed since my arrival for my daughter's residency graduation from Parkland.We arrived very early morning (had alerted hotel of very late arrival) and check in was quick and safety attendant was friendly.Since I am a general manager of a new Woodspring Suites , I am a very picky guest of any hotel I stay at. I have been nothing but impressed at this well maintained property. It is quite apparent how good the management and housekeeping staff are just by looking around. I found absolutely no evidence of prior guests i.e. hairs in bathroom, crumbs in drawers or under bed. And believe me, I checked our room as soon as we opened the door. The room was furnished with 2 double bedsand all appliances worked. My hats off to the lead housekeeper and management team . I would without hesitation recommend this to my friends and family.And if any of my guests are helped this way, I will mention how lovely my stay has been. This will be my hotel of choice when I come visit my daughter in the future. All the staff can pay themselves on the back for doing a wonderful job. You deserve it! I truly appreciate the very clean and stress free stay I am having. Come and experience the WoodSpring way. It's Simple.Done better.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This recently hotel recently rebranded from ValuePlace to Woodspring Suites.I have been nothing but impressed since my arrival for my daughter's residency graduation from Parkland.We arrived very early morning (had alerted hotel of very late arrival) and check in was quick and safety attendant was friendly.Since I am a general manager of a new Woodspring Suites , I am a very picky guest of any hotel I stay at. I have been nothing but impressed at this well maintained property. It is quite apparent how good the management and housekeeping staff are just by looking around. I found absolutely no evidence of prior guests i.e. hairs in bathroom, crumbs in drawers or under bed. And believe me, I checked our room as soon as we opened the door. The room was furnished with 2 double bedsand all appliances worked. My hats off to the lead housekeeper and management team . I would without hesitation recommend this to my friends and family.And if any of my guests are helped this way, I will mention how lovely my stay has been. This will be my hotel of choice when I come visit my daughter in the future. All the staff can pay themselves on the back for doing a wonderful job. You deserve it! I truly appreciate the very clean and stress free stay I am having. Come and experience the WoodSpring way. It's Simple.Done better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r491587390-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>491587390</t>
+  </si>
+  <si>
+    <t>TERRIBLE EXPERIENCE!</t>
+  </si>
+  <si>
+    <t>The hotel has a nice kitchen, but you have to bring your own utensils, cooking items, and pans. We ended up spending more money to get things to cook in than we would have saved and that was the whole reason we stayed here. The room was carpeted and the carpet was STICKY! Gross! The beds were terrible too. They were only a mattress on a bed frame and so they slipped off the metal frame whenever your tried to sit. They overbooked the room we were supposed to get, with a bed and a couch, so we got "upgraded" to two beds. I wanted a couch for a reason! The window sill was falling off the window and the bathroom floor was held together with gorilla glue. We were there for 4 nights and they never once emptied our trash, brought us new towels, or brought us more toilet paper. We had to walk down to ask for toilet paper and even then, the person at the desk was pretty rude about giving it to us. The room was supposed to be for 4 people, but they only gave us 2 twoels. There was no binder or information, so we weren't even sure when checkout was. We waited until the front desk opened and were told that there was no formal checkout, so we wasted time that we could have been driving home. I've filled out 2 reviews that...The hotel has a nice kitchen, but you have to bring your own utensils, cooking items, and pans. We ended up spending more money to get things to cook in than we would have saved and that was the whole reason we stayed here. The room was carpeted and the carpet was STICKY! Gross! The beds were terrible too. They were only a mattress on a bed frame and so they slipped off the metal frame whenever your tried to sit. They overbooked the room we were supposed to get, with a bed and a couch, so we got "upgraded" to two beds. I wanted a couch for a reason! The window sill was falling off the window and the bathroom floor was held together with gorilla glue. We were there for 4 nights and they never once emptied our trash, brought us new towels, or brought us more toilet paper. We had to walk down to ask for toilet paper and even then, the person at the desk was pretty rude about giving it to us. The room was supposed to be for 4 people, but they only gave us 2 twoels. There was no binder or information, so we weren't even sure when checkout was. We waited until the front desk opened and were told that there was no formal checkout, so we wasted time that we could have been driving home. I've filled out 2 reviews that went directly to the company and haven't heard anything back about my complaints. I would not recommend this to my worst enemy!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel has a nice kitchen, but you have to bring your own utensils, cooking items, and pans. We ended up spending more money to get things to cook in than we would have saved and that was the whole reason we stayed here. The room was carpeted and the carpet was STICKY! Gross! The beds were terrible too. They were only a mattress on a bed frame and so they slipped off the metal frame whenever your tried to sit. They overbooked the room we were supposed to get, with a bed and a couch, so we got "upgraded" to two beds. I wanted a couch for a reason! The window sill was falling off the window and the bathroom floor was held together with gorilla glue. We were there for 4 nights and they never once emptied our trash, brought us new towels, or brought us more toilet paper. We had to walk down to ask for toilet paper and even then, the person at the desk was pretty rude about giving it to us. The room was supposed to be for 4 people, but they only gave us 2 twoels. There was no binder or information, so we weren't even sure when checkout was. We waited until the front desk opened and were told that there was no formal checkout, so we wasted time that we could have been driving home. I've filled out 2 reviews that...The hotel has a nice kitchen, but you have to bring your own utensils, cooking items, and pans. We ended up spending more money to get things to cook in than we would have saved and that was the whole reason we stayed here. The room was carpeted and the carpet was STICKY! Gross! The beds were terrible too. They were only a mattress on a bed frame and so they slipped off the metal frame whenever your tried to sit. They overbooked the room we were supposed to get, with a bed and a couch, so we got "upgraded" to two beds. I wanted a couch for a reason! The window sill was falling off the window and the bathroom floor was held together with gorilla glue. We were there for 4 nights and they never once emptied our trash, brought us new towels, or brought us more toilet paper. We had to walk down to ask for toilet paper and even then, the person at the desk was pretty rude about giving it to us. The room was supposed to be for 4 people, but they only gave us 2 twoels. There was no binder or information, so we weren't even sure when checkout was. We waited until the front desk opened and were told that there was no formal checkout, so we wasted time that we could have been driving home. I've filled out 2 reviews that went directly to the company and haven't heard anything back about my complaints. I would not recommend this to my worst enemy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r447063105-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>447063105</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Great value &amp; super helpful staff</t>
+  </si>
+  <si>
+    <t>Have stayed several times this year. Value is awesome with $50-$60 / night for extended stay. Has all amenities that one needs. Front desk (Donna, Anita, James) are very helpful and will take care of any issues that may come up.Beds are average quality and can be further improved.Highly recommended.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r364372901-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>364372901</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>out of all the value places ice stayed at</t>
+  </si>
+  <si>
+    <t>We stayed here for 8 months. Of all the Value Places we stayed at, this was by far the best. Anita was the nicest front desk manager we've encountered.  She was never without a smile or a laugh, she always tried to make others happy/smile.  She was always a ray of sunshine even if she was really tired.  The rest of the staff was nice too.  I got a full turkey from work for Thanksgiving that could not fit in our tiny crock pot, so we gave it to the night security girl.  Anita suggested us to give it to her since we didn't want to throw it away but it was too big for two people and we wanted to give it away, so we did!  One of the guys on staff killed a wasp that got into our room. I'm scared of them, and we went down stairs and talked to the front desk. The guy didn't make any fuss over us not wanting to kill it ourselves. He kindly went up and killed it for us! Value place needs to look at promoting Anita up to the highest training manager to where she travels around the country training every Value Place front desk staff. I've never met a nicer Value Place manager or just ahotel manager nicer than her.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for 8 months. Of all the Value Places we stayed at, this was by far the best. Anita was the nicest front desk manager we've encountered.  She was never without a smile or a laugh, she always tried to make others happy/smile.  She was always a ray of sunshine even if she was really tired.  The rest of the staff was nice too.  I got a full turkey from work for Thanksgiving that could not fit in our tiny crock pot, so we gave it to the night security girl.  Anita suggested us to give it to her since we didn't want to throw it away but it was too big for two people and we wanted to give it away, so we did!  One of the guys on staff killed a wasp that got into our room. I'm scared of them, and we went down stairs and talked to the front desk. The guy didn't make any fuss over us not wanting to kill it ourselves. He kindly went up and killed it for us! Value place needs to look at promoting Anita up to the highest training manager to where she travels around the country training every Value Place front desk staff. I've never met a nicer Value Place manager or just ahotel manager nicer than her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r326418878-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>326418878</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Expectations Not Met</t>
+  </si>
+  <si>
+    <t>There's not enough information provided to really understand the purpose of this residence hotel type.  It was described as a short term apartment after I arrived and inquired about things.  I was expecting something similar to the Candlewood Suites or Marriott Residence Inn for the $127/night price tag.  Had no choice but to stay since I had reserved it over a month out and by the time I arrived, there were no accommodations anywhere close due to the NASCAR races.  I had the chance to reserve closer to the DFW Airport a month earlier and for a lower rate.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r303904799-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>303904799</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Nice rooms, great staff</t>
+  </si>
+  <si>
+    <t>I can't say enough how friendly the staff was.  They were welcoming and helpful.   They even easily accommodated my need to check out earlier than scheduled due to changes in our travel plans. The rooms were nice enough. There are no plates, etc so bring your own. We ended up on the top floor and the person below us complained (nicely) about hearing our daughter jumping and playing around.  He was there for work and had to get up really early.  We didn't have anyone above us to confirm the noise transfer,  but that seemed to be a problem.   Because of the larger room and style of furnishings,  it was louder.  (At our next hotel, for example,  she could jump on the bed and there was no sound).I would recommend staying here for the price and full kitchen.   There is no pool though. Restaurants and Wal-Mart were close by,  which was nice too.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I can't say enough how friendly the staff was.  They were welcoming and helpful.   They even easily accommodated my need to check out earlier than scheduled due to changes in our travel plans. The rooms were nice enough. There are no plates, etc so bring your own. We ended up on the top floor and the person below us complained (nicely) about hearing our daughter jumping and playing around.  He was there for work and had to get up really early.  We didn't have anyone above us to confirm the noise transfer,  but that seemed to be a problem.   Because of the larger room and style of furnishings,  it was louder.  (At our next hotel, for example,  she could jump on the bed and there was no sound).I would recommend staying here for the price and full kitchen.   There is no pool though. Restaurants and Wal-Mart were close by,  which was nice too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r299380565-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>299380565</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>"Very bad experience"</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 weeks due to Job relocation and we had very bad experience. Room was not cleaned and bed sheets were dirty. Internet speed was very slow and they charge $10/week. Room service is once in a week and that also you have to remind. They don't provide any utensils and you need to pay extra for it.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r297290728-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>297290728</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Beyond Amazing</t>
+  </si>
+  <si>
+    <t>From the staff to the rooms,my stay was a great experience!!!The Manager Anita and all of her employees gave top notch,quality customer service.You can tell when people love what they do because it shows in their customer service. I could write on and on but I will sum up my stay there with two words,"beyond amazing!!!"Thank you  again to everyone on the staff at the Value Place Hotel in Trophy Club!!!GOD Bless you all!!!Ed Miller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r268993205-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>268993205</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Clean &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>Having stayed at many Value Place hotels, this one has met my expectations for comfort, cleanliness, and safety. The rate is a little higher than others in the area, but paid the extra for the convenience of its location for where I had to make my daily commute.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r266926338-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>266926338</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Be careful</t>
+  </si>
+  <si>
+    <t>Stayed for 5 nights while our house was being worked on. Friendly staff, clean, just the basics. Supposed to be a non-smoking hotel. Friday night at about 2:00 AM smelled smoke and called front desk. Too lazy to come to our floor and check it out. Seems they don't want to enforce the no smoking rule, and don't care about their guests. Too bad!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r258871920-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>258871920</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>I'll start with the good, the place is clean, safe and priced well.
+Beds are high enough to store tons of stuff under.
+Staff was very nice and polite.
+But if your looking for the bad (like I do) here it is, first of all the window don't open more than few inches, so in order for us to cook in the room we had to open the window, turn on the bathroom fan and the fan on top of the cooking stove thing.
+Still after all that the room will smell and your clothing will smell as well.
+Speaking of cooking, you have to bring or buy your own everything, cups, pots, pans and and and.
+We stayed there for a long time but paid weekly, but for some reason our key would stop working a day short of what we paid, so if we paid from say Sunday to Sunday our key would stop working on Saturday, which was very annoying.
+Pay for a week, key should work for a week not 6 days.
+Internet is extra, for the decent speed one is $20 and it's only for 3 devices, which may seem like enough but if you got a laptop, phone and iPad your done! no one else in your room can work their laptop or any other device for that matter.
+Didn't mind taking out the trash, but minded that the trash was a walk from...I'll start with the good, the place is clean, safe and priced well.Beds are high enough to store tons of stuff under.Staff was very nice and polite.But if your looking for the bad (like I do) here it is, first of all the window don't open more than few inches, so in order for us to cook in the room we had to open the window, turn on the bathroom fan and the fan on top of the cooking stove thing.Still after all that the room will smell and your clothing will smell as well.Speaking of cooking, you have to bring or buy your own everything, cups, pots, pans and and and.We stayed there for a long time but paid weekly, but for some reason our key would stop working a day short of what we paid, so if we paid from say Sunday to Sunday our key would stop working on Saturday, which was very annoying.Pay for a week, key should work for a week not 6 days.Internet is extra, for the decent speed one is $20 and it's only for 3 devices, which may seem like enough but if you got a laptop, phone and iPad your done! no one else in your room can work their laptop or any other device for that matter.Didn't mind taking out the trash, but minded that the trash was a walk from the hotel.Now we stayed for a long time (long enough not to pay tax) but on check out what was upsetting that they couldn't pro-rate our rate for us, we needed few extra days not the entire week and basically the rate for the night doubled!It was almost cheaper to book for a week and leave the room empty!Or if your not like us and didn't accumulate stuff and can move easy, go to the Hampton and enjoy the free internet and a better room for the same rate.  Some nights the people above us seem to work out and drop the weights on the floor every few minutes and also the people across from us like to party up to 2 am. Again it's a good value, but now that we left we have tons of stuff we don't need any more as in towels, plates, pots and pans (cheap ones as it was a temp thing) and and and.   But if you need a place to stay for extended time and on a budget this is the place for sure.It will do, again it's clean, safe and cheap. Much cheaper than renting a place or getting a hotel room without a kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I'll start with the good, the place is clean, safe and priced well.
+Beds are high enough to store tons of stuff under.
+Staff was very nice and polite.
+But if your looking for the bad (like I do) here it is, first of all the window don't open more than few inches, so in order for us to cook in the room we had to open the window, turn on the bathroom fan and the fan on top of the cooking stove thing.
+Still after all that the room will smell and your clothing will smell as well.
+Speaking of cooking, you have to bring or buy your own everything, cups, pots, pans and and and.
+We stayed there for a long time but paid weekly, but for some reason our key would stop working a day short of what we paid, so if we paid from say Sunday to Sunday our key would stop working on Saturday, which was very annoying.
+Pay for a week, key should work for a week not 6 days.
+Internet is extra, for the decent speed one is $20 and it's only for 3 devices, which may seem like enough but if you got a laptop, phone and iPad your done! no one else in your room can work their laptop or any other device for that matter.
+Didn't mind taking out the trash, but minded that the trash was a walk from...I'll start with the good, the place is clean, safe and priced well.Beds are high enough to store tons of stuff under.Staff was very nice and polite.But if your looking for the bad (like I do) here it is, first of all the window don't open more than few inches, so in order for us to cook in the room we had to open the window, turn on the bathroom fan and the fan on top of the cooking stove thing.Still after all that the room will smell and your clothing will smell as well.Speaking of cooking, you have to bring or buy your own everything, cups, pots, pans and and and.We stayed there for a long time but paid weekly, but for some reason our key would stop working a day short of what we paid, so if we paid from say Sunday to Sunday our key would stop working on Saturday, which was very annoying.Pay for a week, key should work for a week not 6 days.Internet is extra, for the decent speed one is $20 and it's only for 3 devices, which may seem like enough but if you got a laptop, phone and iPad your done! no one else in your room can work their laptop or any other device for that matter.Didn't mind taking out the trash, but minded that the trash was a walk from the hotel.Now we stayed for a long time (long enough not to pay tax) but on check out what was upsetting that they couldn't pro-rate our rate for us, we needed few extra days not the entire week and basically the rate for the night doubled!It was almost cheaper to book for a week and leave the room empty!Or if your not like us and didn't accumulate stuff and can move easy, go to the Hampton and enjoy the free internet and a better room for the same rate.  Some nights the people above us seem to work out and drop the weights on the floor every few minutes and also the people across from us like to party up to 2 am. Again it's a good value, but now that we left we have tons of stuff we don't need any more as in towels, plates, pots and pans (cheap ones as it was a temp thing) and and and.   But if you need a place to stay for extended time and on a budget this is the place for sure.It will do, again it's clean, safe and cheap. Much cheaper than renting a place or getting a hotel room without a kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r232314906-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>232314906</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Safest place around.</t>
+  </si>
+  <si>
+    <t>My family was new to the area so it took a few different hotel stays before we were blessed and found this one until our home was ready. It's quiet and I loved the staff, always went out of their way for us if needed. Met some pretty nice people who were staying there. If you want to be in a safe, clean place this would be it, if staying in and around the Irving area. As far as the social sites issues I have to agree with that statement. Just keep your location off your phone and keep posts private. Jason was by far my favorite;) Aneita and Eric were sweet also, housekeeping always nice but never met anyone else. We stayed 1.5 months.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean A, Owner at WoodSpring Suites Fort Worth Trophy Club, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>My family was new to the area so it took a few different hotel stays before we were blessed and found this one until our home was ready. It's quiet and I loved the staff, always went out of their way for us if needed. Met some pretty nice people who were staying there. If you want to be in a safe, clean place this would be it, if staying in and around the Irving area. As far as the social sites issues I have to agree with that statement. Just keep your location off your phone and keep posts private. Jason was by far my favorite;) Aneita and Eric were sweet also, housekeeping always nice but never met anyone else. We stayed 1.5 months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r219173315-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>219173315</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Exceeds expectation</t>
+  </si>
+  <si>
+    <t>Clean room, great price, and a really great staff.  The location is excellent -- very convenient to the office.    The common areas are exceedingly well cared for.   I would definitely stay here again in the future.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r218565001-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>218565001</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Manager awful</t>
+  </si>
+  <si>
+    <t>Tried to talk to manager Adam who says he owns that hotel all he did was talk down about his staff. What a shame. staff was great. He is a bad manager. Clean rooms, friendly staff. I don't know how they stay so nice when there boss treats them like dirt</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r196923818-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>196923818</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Friendly Staff, Very Clean</t>
+  </si>
+  <si>
+    <t>My Husband had to stay here for work for three weeks.  I would come down for the weekends to visit and I really enjoyed the staff.  Aneita at the desk was always nice to greet us, and Anthony was around during the night time.  Hallways always smelled nice too. felt comfortable leaving my husband there by himself, as well as visiting on the weekends.  When he has work there again, we will be staying at the Value Place, Trophy Club.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r196679725-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>196679725</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>Excellent Vacation Stay</t>
+  </si>
+  <si>
+    <t>My family enjoyed a clean facility and good service with a very friendly staff. The rooms are nice and neat. The area is safe and secure. The exterior is well kept. There is easy access to the highway.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r196311408-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>196311408</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>RWM : Excellent customer service and value!</t>
+  </si>
+  <si>
+    <t>Stayed here five weeks, the room was comfortable, clean and reasonably priced. The staff was friendly, helpful and professional (some live on site). Other guests were quiet, respectful and friendly. If you have to be away from home for an extended period of time and need a place to stay in the Dallas/Ft. Worth Area I highly reccommend Value Place Trophy Club. Manager Adam and assistant Anita are great to work with and always helpful and responsive.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r161881203-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>161881203</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Hit Rock Bottom</t>
+  </si>
+  <si>
+    <t>Let me start off with I have never stayed in an extended stay hotel. Due to job transfer was forced into this.Room was filthy. Just bought a Swifter to clean the entrance and bathroom floors and filled up a garbage bag full of filthy pads. Looks like it has not been mopped in years.Bought a toilet brush to clean the bowl. Under the rim disgusting. Cleaned and sanitized the seat, which is filled with stains.Shower looks like it has been cleaned. Never. Massive spots all over it.Room is cleaned once every 2 weeks. Can you imagine?Mattress sits on board. No box spring. Pillows lumpy, heaven knows what is lurking inside them. Some sort of mattress pad has lumps in it as well.No HD TV. Limited channels.No wireless internet. Cannot use the iPad. There are whole families living in the rooms next to mine, slam doors all day long.Dying for my relo to come through.....MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Let me start off with I have never stayed in an extended stay hotel. Due to job transfer was forced into this.Room was filthy. Just bought a Swifter to clean the entrance and bathroom floors and filled up a garbage bag full of filthy pads. Looks like it has not been mopped in years.Bought a toilet brush to clean the bowl. Under the rim disgusting. Cleaned and sanitized the seat, which is filled with stains.Shower looks like it has been cleaned. Never. Massive spots all over it.Room is cleaned once every 2 weeks. Can you imagine?Mattress sits on board. No box spring. Pillows lumpy, heaven knows what is lurking inside them. Some sort of mattress pad has lumps in it as well.No HD TV. Limited channels.No wireless internet. Cannot use the iPad. There are whole families living in the rooms next to mine, slam doors all day long.Dying for my relo to come through.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r157546016-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>157546016</t>
+  </si>
+  <si>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t>Pleasant Hotel</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was quite comfortable and pleasant. -Safety isn't an issue. Trophy Club as whole, is a very nice, friendly, and upscale area within DFW. Hotel doors and entrances are kept locked and I never felt uneasy at the hotel, or within the town. -Cleanliness of the hotel was excellent. The room was always cleaned thoroughly and looked fresh.-Space is suburb with lots of room -- at least I thought so. -Bathroom is comfortable and normal. -Staff were helpful and professional.Overall I would stay here again and believe it makes for a nice stay.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r151937785-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>151937785</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>All the reviews here sound very unreal!</t>
+  </si>
+  <si>
+    <t>This place just sucks $239/week with additional taxes and this totals to $271/week.  The internet is wired and they charge $10/week.  The commercial says they clean twice a week but it is just once.  There is no reception, HAHA, the reception counter is always closed, what kind of a service is this, you call 500 and then a lady comes after 5 minutes to help you!Toilets are dirty from inside and television sets are screwed to the tables and are so small and far away.Please stay far away from this place.Internet speed is bad, they give you a code, common after paying almost $40/day, you can't provide internet, ridiculous.  People living here buy routers and buy internet from the Value Place.  Again, Internet speed is limited even after the payment, what kind of a place is this?MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>This place just sucks $239/week with additional taxes and this totals to $271/week.  The internet is wired and they charge $10/week.  The commercial says they clean twice a week but it is just once.  There is no reception, HAHA, the reception counter is always closed, what kind of a service is this, you call 500 and then a lady comes after 5 minutes to help you!Toilets are dirty from inside and television sets are screwed to the tables and are so small and far away.Please stay far away from this place.Internet speed is bad, they give you a code, common after paying almost $40/day, you can't provide internet, ridiculous.  People living here buy routers and buy internet from the Value Place.  Again, Internet speed is limited even after the payment, what kind of a place is this?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r138156692-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>138156692</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>Temporary Home</t>
+  </si>
+  <si>
+    <t>The staff and people who manage this motel are friendly and caring!  They treat you like family and go out of their way to help you. I would have liked to had a better mattress because of my back so I rated "sleep" average.  Rooms and common areas are very clean.  The location is ideal.  Great value for a temporary residence!  My stay was for 7 weeks.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r137549876-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>137549876</t>
+  </si>
+  <si>
+    <t>08/18/2012</t>
+  </si>
+  <si>
+    <t>Helpful Staff, Clean and Comfortable - Value Place Trophy Club is Great.</t>
+  </si>
+  <si>
+    <t>Value Place in Trophy Club, Texas is an excellent hotel.  As a person who has traveled frequently for business and used hotels across the United States, I can safely say that Value Place, Trophy Club rates toward the top of the list.The common space and the rooms are very clean.  The location is very good.  The surrounding area is very good.  The building is very secure - plus the staff members are consistently watching the activity outside the hotel to ensure added security around vehicles, etc.The staff is really great.  Each person including the Manager, the office staff and the housekeeping staff are friendly and detail oriented.  Any requests or questions that I have had have been addressed quickly with thorough follow-up.  I am very happy with the entire hotel operation at Value Place, Trophy Club, TX.  Would I stay at the hotel again?  Absolutely!Nick T.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Value Place in Trophy Club, Texas is an excellent hotel.  As a person who has traveled frequently for business and used hotels across the United States, I can safely say that Value Place, Trophy Club rates toward the top of the list.The common space and the rooms are very clean.  The location is very good.  The surrounding area is very good.  The building is very secure - plus the staff members are consistently watching the activity outside the hotel to ensure added security around vehicles, etc.The staff is really great.  Each person including the Manager, the office staff and the housekeeping staff are friendly and detail oriented.  Any requests or questions that I have had have been addressed quickly with thorough follow-up.  I am very happy with the entire hotel operation at Value Place, Trophy Club, TX.  Would I stay at the hotel again?  Absolutely!Nick T.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r137312333-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>137312333</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>A great value</t>
+  </si>
+  <si>
+    <t>we enjoyed our stay here.  the accommodations were very clean and though others found the beds uncomfortable we slept well.  My son has back trouble when beds are too hard and he did well.  We are aware this is a no frills hotel but it was comfortable enough for a vacation and the $300 we saved by staying here was definitely worth carrying out our trash and providing our on bathroom tissue.   I would certainly be willing to stay her in the future on longer vacations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r129884326-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>129884326</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>Clean, Safe, Cheap.</t>
+  </si>
+  <si>
+    <t>After selling our house sooner than expected we needed a place to stay for a week or two until we could find a new place.The young women at the desk were friendly and helpful. The after hours desk/security person was prompt and friendly as well.The room was clean and the other guests quiet ---mostly working people like us.The only thing that wasn't so great was that our room was near one of the outside security lights and there are no blackout curtains.  It was like daylight 24 hours a day inside the room.Other than that, I'd stay there again and would recommend the place to a friend.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Fort Worth Trophy Club, responded to this reviewResponded May 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2012</t>
+  </si>
+  <si>
+    <t>After selling our house sooner than expected we needed a place to stay for a week or two until we could find a new place.The young women at the desk were friendly and helpful. The after hours desk/security person was prompt and friendly as well.The room was clean and the other guests quiet ---mostly working people like us.The only thing that wasn't so great was that our room was near one of the outside security lights and there are no blackout curtains.  It was like daylight 24 hours a day inside the room.Other than that, I'd stay there again and would recommend the place to a friend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r128167354-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>128167354</t>
+  </si>
+  <si>
+    <t>04/19/2012</t>
+  </si>
+  <si>
+    <t>Fantistic Stay</t>
+  </si>
+  <si>
+    <t>I must admit that this Value Place is one if not the best place I have stayed during my travels. My grandson and I stay here twice a year when we attend the Nascar races in Ft. Worth. The hotel is alway clean and the staff is eager to assist and very helpful. We look forward to our stay here again in November 2012.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Fort Worth Trophy Club, responded to this reviewResponded April 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2012</t>
+  </si>
+  <si>
+    <t>I must admit that this Value Place is one if not the best place I have stayed during my travels. My grandson and I stay here twice a year when we attend the Nascar races in Ft. Worth. The hotel is alway clean and the staff is eager to assist and very helpful. We look forward to our stay here again in November 2012.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r127542714-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>127542714</t>
+  </si>
+  <si>
+    <t>04/09/2012</t>
+  </si>
+  <si>
+    <t>HONEST FEEDBACK</t>
+  </si>
+  <si>
+    <t>We stayed here for 3weeks to save some money but ended up spending more. Even though the staff is good, that is just not enough. Here is my honest feedback, read this before moving in.
+1) Room service only once in 2weeks, that too they dont change sheets/comforter or pillow cases, they DONT provide toilet papers or soaps or shampoo or vaccumm carpet unless you ask for it. 
+2) The room doesnt come with any utensils what so ever. No iron box either. Pay extra to get them.
+3) There is a very small TV in every room and they have hooked it to the TV desk such that it cannot even be moved an inch. so the screen will face in one direction and if you sit on sofa or the bed, the angle does NOT match and it CANNOT be adjusted.
+4) They charge 10$ for internet which is DAMN slow, takes while to open webpages forget about watching videos.
+5) You CANNOT cook in the room as it is going to stink! because the only window in the room cannot be opened. They have put a solid block on every window, such that we cannot open window more than an 2inches, so their is no air circulation. Also because of this we had to eat out Daily... so there is no point in having a kitchenette!
+Overall, I would pay extra 5$ per day and book an...We stayed here for 3weeks to save some money but ended up spending more. Even though the staff is good, that is just not enough. Here is my honest feedback, read this before moving in.1) Room service only once in 2weeks, that too they dont change sheets/comforter or pillow cases, they DONT provide toilet papers or soaps or shampoo or vaccumm carpet unless you ask for it. 2) The room doesnt come with any utensils what so ever. No iron box either. Pay extra to get them.3) There is a very small TV in every room and they have hooked it to the TV desk such that it cannot even be moved an inch. so the screen will face in one direction and if you sit on sofa or the bed, the angle does NOT match and it CANNOT be adjusted.4) They charge 10$ for internet which is DAMN slow, takes while to open webpages forget about watching videos.5) You CANNOT cook in the room as it is going to stink! because the only window in the room cannot be opened. They have put a solid block on every window, such that we cannot open window more than an 2inches, so their is no air circulation. Also because of this we had to eat out Daily... so there is no point in having a kitchenette!Overall, I would pay extra 5$ per day and book an extended stay instead of value place.. because at the end of the day.. its going to cost the same!!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Fort Worth Trophy Club, responded to this reviewResponded April 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for 3weeks to save some money but ended up spending more. Even though the staff is good, that is just not enough. Here is my honest feedback, read this before moving in.
+1) Room service only once in 2weeks, that too they dont change sheets/comforter or pillow cases, they DONT provide toilet papers or soaps or shampoo or vaccumm carpet unless you ask for it. 
+2) The room doesnt come with any utensils what so ever. No iron box either. Pay extra to get them.
+3) There is a very small TV in every room and they have hooked it to the TV desk such that it cannot even be moved an inch. so the screen will face in one direction and if you sit on sofa or the bed, the angle does NOT match and it CANNOT be adjusted.
+4) They charge 10$ for internet which is DAMN slow, takes while to open webpages forget about watching videos.
+5) You CANNOT cook in the room as it is going to stink! because the only window in the room cannot be opened. They have put a solid block on every window, such that we cannot open window more than an 2inches, so their is no air circulation. Also because of this we had to eat out Daily... so there is no point in having a kitchenette!
+Overall, I would pay extra 5$ per day and book an...We stayed here for 3weeks to save some money but ended up spending more. Even though the staff is good, that is just not enough. Here is my honest feedback, read this before moving in.1) Room service only once in 2weeks, that too they dont change sheets/comforter or pillow cases, they DONT provide toilet papers or soaps or shampoo or vaccumm carpet unless you ask for it. 2) The room doesnt come with any utensils what so ever. No iron box either. Pay extra to get them.3) There is a very small TV in every room and they have hooked it to the TV desk such that it cannot even be moved an inch. so the screen will face in one direction and if you sit on sofa or the bed, the angle does NOT match and it CANNOT be adjusted.4) They charge 10$ for internet which is DAMN slow, takes while to open webpages forget about watching videos.5) You CANNOT cook in the room as it is going to stink! because the only window in the room cannot be opened. They have put a solid block on every window, such that we cannot open window more than an 2inches, so their is no air circulation. Also because of this we had to eat out Daily... so there is no point in having a kitchenette!Overall, I would pay extra 5$ per day and book an extended stay instead of value place.. because at the end of the day.. its going to cost the same!!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r122847825-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>122847825</t>
+  </si>
+  <si>
+    <t>01/09/2012</t>
+  </si>
+  <si>
+    <t>A wonderful place to stay</t>
+  </si>
+  <si>
+    <t>The entire experience was positive. I stayed here for several weeks in November 2011 and plan to stay again in March 2012 while looking for a permanent residence.  Simply stated: the rooms were both comfortable and clean and the staff was both friendly and professional.  On the few occassions when I needed something; it was handled quickly.  I would recommend this hotel to any of my friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Fort Worth Trophy Club, responded to this reviewResponded January 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2012</t>
+  </si>
+  <si>
+    <t>The entire experience was positive. I stayed here for several weeks in November 2011 and plan to stay again in March 2012 while looking for a permanent residence.  Simply stated: the rooms were both comfortable and clean and the staff was both friendly and professional.  On the few occassions when I needed something; it was handled quickly.  I would recommend this hotel to any of my friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r117246195-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>117246195</t>
+  </si>
+  <si>
+    <t>08/25/2011</t>
+  </si>
+  <si>
+    <t>Great hotel with excellent staff</t>
+  </si>
+  <si>
+    <t>This is my second time to stay here and it is even better than the first time. My family and I have been here since March while we look for a house to buy in Trophy Club. The new manager is great and responds quickly to your needs.The safety here is great also. The housecleaning always does a wonderful job in keeping our room clean.This is an  excellent place to stay and the price is very affordable. I recommend this hotel to anyone looking for a safe,clean and great price to all.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Fort Worth Trophy Club, responded to this reviewResponded August 26, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2011</t>
+  </si>
+  <si>
+    <t>This is my second time to stay here and it is even better than the first time. My family and I have been here since March while we look for a house to buy in Trophy Club. The new manager is great and responds quickly to your needs.The safety here is great also. The housecleaning always does a wonderful job in keeping our room clean.This is an  excellent place to stay and the price is very affordable. I recommend this hotel to anyone looking for a safe,clean and great price to all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r98841625-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>98841625</t>
+  </si>
+  <si>
+    <t>03/03/2011</t>
+  </si>
+  <si>
+    <t>We had a good experience with the staff, the facilities, and felt safe in the pleasant environment.</t>
+  </si>
+  <si>
+    <t>We were in the Dallas area undergoing medical treatment.  The current manager, Katherine, went out of her way to accomodate my husband's special needs.  The entire staff (the manager, assistant manager, housekeepers, and the maintenance/grounds person) were all very helpful in assisting us with everything we needed.  I would highly recommend this extended stay hotel as a safe, clean and convenient environment with a friendly, professional, and attentive staff.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r83764518-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>83764518</t>
+  </si>
+  <si>
+    <t>10/16/2010</t>
+  </si>
+  <si>
+    <t>economical stay and great experience thus far</t>
+  </si>
+  <si>
+    <t>I've been at value place since may 2010. Like most posts on this site..it has an affordable rate for long term stay travellers and individuals/families in transition or vacation. The staff is very friendly and my room is very clean and just what I need for now. With many hotels there are flaws but we adjust especially if you let the management team know your complaints in advance. It is definitely a great place to stay because of great location, great price, nice staff, safe area, very clean hotel, and all the amenities that I need to call home for now. My only concern is the bed was too firm. It was not comfortable at all but I went out and bought a mattress cover and that resolved that problem.  I let the hotel know about the bed. The housekeepers do a great job of cleaning the room. So far my experience has been great.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>I've been at value place since may 2010. Like most posts on this site..it has an affordable rate for long term stay travellers and individuals/families in transition or vacation. The staff is very friendly and my room is very clean and just what I need for now. With many hotels there are flaws but we adjust especially if you let the management team know your complaints in advance. It is definitely a great place to stay because of great location, great price, nice staff, safe area, very clean hotel, and all the amenities that I need to call home for now. My only concern is the bed was too firm. It was not comfortable at all but I went out and bought a mattress cover and that resolved that problem.  I let the hotel know about the bed. The housekeepers do a great job of cleaning the room. So far my experience has been great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r83409620-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>83409620</t>
+  </si>
+  <si>
+    <t>10/13/2010</t>
+  </si>
+  <si>
+    <t>Value Place in Trophy Club... BEST in DFW !!</t>
+  </si>
+  <si>
+    <t>I've been here since mid August, and I couldnt imagine staying anywhere else in the DFW area.  Katherine (manager) is an excellent manager. She is always prompt in any request you might need, and follows up to make sure your request was followed thru to the "T" !!.....Let's not forget the asst mgr Ann....very professional too !!  The house keeping  staff (Sandra &amp; Jorge) are aces also !!.. This hotel is VERY well maintained !  I work for a major employer in the DFW area, and I would highly recommend this place to my fellow employees, or anyone traveling travelling thru the area. You WILL NOT be disappointed !!!!  - Shawn S. , Ft Worth Tx.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I've been here since mid August, and I couldnt imagine staying anywhere else in the DFW area.  Katherine (manager) is an excellent manager. She is always prompt in any request you might need, and follows up to make sure your request was followed thru to the "T" !!.....Let's not forget the asst mgr Ann....very professional too !!  The house keeping  staff (Sandra &amp; Jorge) are aces also !!.. This hotel is VERY well maintained !  I work for a major employer in the DFW area, and I would highly recommend this place to my fellow employees, or anyone traveling travelling thru the area. You WILL NOT be disappointed !!!!  - Shawn S. , Ft Worth Tx.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r74701407-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>74701407</t>
+  </si>
+  <si>
+    <t>08/10/2010</t>
+  </si>
+  <si>
+    <t>5 Star Service at a 2 Star Price!</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel late, and by all appearances it seemed closed. Apparently no one mans the desk after business hours. This was new to me as I’m used to hotels with a 24/7 staff, and someone always being available at the front desk. Not a big deal, they had a phone in the lobby that we were able to call security on and get checked into the hotel. It took a few minutes before the security guard arrived, but once he did we were greeted warmly, and checked into the hotel promptly.
+We had never stayed at a Value Place, and weren’t sure what to expect in the rooms, but everything turned out ok. The best way I can describe the room is as an upscale dorm or small efficiency. There is no big screen TV, or king size pillow top bed, but the room was clean and functional, and overall, it was comfortable. It was just what I needed, at a price that was extremely affordable. For what I paid for one week here, I’ve spent for a single night more times than I’d like to remember.
+The location was very convenient, and only about 15 minutes from Dallas, and Ft. Worth. Restaurants, and grocery stores are close by, but I would recommend having a car at this location as there isn’t much within walking distance. The hotel doesn’t have many amenities, but the price and friendly...We arrived at the hotel late, and by all appearances it seemed closed. Apparently no one mans the desk after business hours. This was new to me as I’m used to hotels with a 24/7 staff, and someone always being available at the front desk. Not a big deal, they had a phone in the lobby that we were able to call security on and get checked into the hotel. It took a few minutes before the security guard arrived, but once he did we were greeted warmly, and checked into the hotel promptly.We had never stayed at a Value Place, and weren’t sure what to expect in the rooms, but everything turned out ok. The best way I can describe the room is as an upscale dorm or small efficiency. There is no big screen TV, or king size pillow top bed, but the room was clean and functional, and overall, it was comfortable. It was just what I needed, at a price that was extremely affordable. For what I paid for one week here, I’ve spent for a single night more times than I’d like to remember.The location was very convenient, and only about 15 minutes from Dallas, and Ft. Worth. Restaurants, and grocery stores are close by, but I would recommend having a car at this location as there isn’t much within walking distance. The hotel doesn’t have many amenities, but the price and friendly service make up for the lack of a swimming pool, or fitness center. Which by the way the staff offered me a special rate at fitness center across the highway if I wanted to workout.Overall, the staff, and cost of lodging were what we liked best about the location. We were treated like we were staying at a 5 star hotel, but paying a 2 star price.What I liked least about the hotel were the beds. They are on the firm side, but the staff even helped us with that. Apparently they had some spare mattresses, and they went out of their way to stack a second mattress on top of the first which made for a good nights sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel late, and by all appearances it seemed closed. Apparently no one mans the desk after business hours. This was new to me as I’m used to hotels with a 24/7 staff, and someone always being available at the front desk. Not a big deal, they had a phone in the lobby that we were able to call security on and get checked into the hotel. It took a few minutes before the security guard arrived, but once he did we were greeted warmly, and checked into the hotel promptly.
+We had never stayed at a Value Place, and weren’t sure what to expect in the rooms, but everything turned out ok. The best way I can describe the room is as an upscale dorm or small efficiency. There is no big screen TV, or king size pillow top bed, but the room was clean and functional, and overall, it was comfortable. It was just what I needed, at a price that was extremely affordable. For what I paid for one week here, I’ve spent for a single night more times than I’d like to remember.
+The location was very convenient, and only about 15 minutes from Dallas, and Ft. Worth. Restaurants, and grocery stores are close by, but I would recommend having a car at this location as there isn’t much within walking distance. The hotel doesn’t have many amenities, but the price and friendly...We arrived at the hotel late, and by all appearances it seemed closed. Apparently no one mans the desk after business hours. This was new to me as I’m used to hotels with a 24/7 staff, and someone always being available at the front desk. Not a big deal, they had a phone in the lobby that we were able to call security on and get checked into the hotel. It took a few minutes before the security guard arrived, but once he did we were greeted warmly, and checked into the hotel promptly.We had never stayed at a Value Place, and weren’t sure what to expect in the rooms, but everything turned out ok. The best way I can describe the room is as an upscale dorm or small efficiency. There is no big screen TV, or king size pillow top bed, but the room was clean and functional, and overall, it was comfortable. It was just what I needed, at a price that was extremely affordable. For what I paid for one week here, I’ve spent for a single night more times than I’d like to remember.The location was very convenient, and only about 15 minutes from Dallas, and Ft. Worth. Restaurants, and grocery stores are close by, but I would recommend having a car at this location as there isn’t much within walking distance. The hotel doesn’t have many amenities, but the price and friendly service make up for the lack of a swimming pool, or fitness center. Which by the way the staff offered me a special rate at fitness center across the highway if I wanted to workout.Overall, the staff, and cost of lodging were what we liked best about the location. We were treated like we were staying at a 5 star hotel, but paying a 2 star price.What I liked least about the hotel were the beds. They are on the firm side, but the staff even helped us with that. Apparently they had some spare mattresses, and they went out of their way to stack a second mattress on top of the first which made for a good nights sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r35615969-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>35615969</t>
+  </si>
+  <si>
+    <t>07/23/2009</t>
+  </si>
+  <si>
+    <t>So-So... IS what it IS...</t>
+  </si>
+  <si>
+    <t>Had a pretty ok stay at Value Place in Trophy Club, TX this month.  It's amenities are VERY basic.  It was overall clean, but the carpets were very poorly vacuumed and I did find hair in the tub.  The provided towels were so small and thin they barely dried off a 7-year-old...so I recommend bringing your own.  They also don't seem to provide an additional roll of toilet paper on the cleaning day...so for four of us staying there, one roll of toilet paper did not go far...  The bedding is pretty horrible, was glad to have had sleeping bags along.   The TV is VERY tiny.   I've never stayed at an extended stay place before, but while visiting family, it made the most sense seeing we were more or less just sleeping there... I wasn't sure what exactly to expect and I suppose now I know that if I'm trying to acheive a certain level of comfort I must bring own bedding, pillows, towels, shampoo/conditioner, etc.  They provide a bar of soap and 2 plastic cups...and a laundry basket. 
+The price is right so I may stay at one again if I'm somewhere for a solid week or more, but it would require much more careful, thoughtful packing next time... not sure I want to go through the hassle of bringing so many extras...
+It was overall quiet with friendly fellow travelers.  The laundry facilities were very nice.  Internet, but...Had a pretty ok stay at Value Place in Trophy Club, TX this month.  It's amenities are VERY basic.  It was overall clean, but the carpets were very poorly vacuumed and I did find hair in the tub.  The provided towels were so small and thin they barely dried off a 7-year-old...so I recommend bringing your own.  They also don't seem to provide an additional roll of toilet paper on the cleaning day...so for four of us staying there, one roll of toilet paper did not go far...  The bedding is pretty horrible, was glad to have had sleeping bags along.   The TV is VERY tiny.   I've never stayed at an extended stay place before, but while visiting family, it made the most sense seeing we were more or less just sleeping there... I wasn't sure what exactly to expect and I suppose now I know that if I'm trying to acheive a certain level of comfort I must bring own bedding, pillows, towels, shampoo/conditioner, etc.  They provide a bar of soap and 2 plastic cups...and a laundry basket. The price is right so I may stay at one again if I'm somewhere for a solid week or more, but it would require much more careful, thoughtful packing next time... not sure I want to go through the hassle of bringing so many extras...It was overall quiet with friendly fellow travelers.  The laundry facilities were very nice.  Internet, but need an ether net cable to get online.  Late night security guy was very far from knowledgeable, not the sharpest tool in the shed...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>Had a pretty ok stay at Value Place in Trophy Club, TX this month.  It's amenities are VERY basic.  It was overall clean, but the carpets were very poorly vacuumed and I did find hair in the tub.  The provided towels were so small and thin they barely dried off a 7-year-old...so I recommend bringing your own.  They also don't seem to provide an additional roll of toilet paper on the cleaning day...so for four of us staying there, one roll of toilet paper did not go far...  The bedding is pretty horrible, was glad to have had sleeping bags along.   The TV is VERY tiny.   I've never stayed at an extended stay place before, but while visiting family, it made the most sense seeing we were more or less just sleeping there... I wasn't sure what exactly to expect and I suppose now I know that if I'm trying to acheive a certain level of comfort I must bring own bedding, pillows, towels, shampoo/conditioner, etc.  They provide a bar of soap and 2 plastic cups...and a laundry basket. 
+The price is right so I may stay at one again if I'm somewhere for a solid week or more, but it would require much more careful, thoughtful packing next time... not sure I want to go through the hassle of bringing so many extras...
+It was overall quiet with friendly fellow travelers.  The laundry facilities were very nice.  Internet, but...Had a pretty ok stay at Value Place in Trophy Club, TX this month.  It's amenities are VERY basic.  It was overall clean, but the carpets were very poorly vacuumed and I did find hair in the tub.  The provided towels were so small and thin they barely dried off a 7-year-old...so I recommend bringing your own.  They also don't seem to provide an additional roll of toilet paper on the cleaning day...so for four of us staying there, one roll of toilet paper did not go far...  The bedding is pretty horrible, was glad to have had sleeping bags along.   The TV is VERY tiny.   I've never stayed at an extended stay place before, but while visiting family, it made the most sense seeing we were more or less just sleeping there... I wasn't sure what exactly to expect and I suppose now I know that if I'm trying to acheive a certain level of comfort I must bring own bedding, pillows, towels, shampoo/conditioner, etc.  They provide a bar of soap and 2 plastic cups...and a laundry basket. The price is right so I may stay at one again if I'm somewhere for a solid week or more, but it would require much more careful, thoughtful packing next time... not sure I want to go through the hassle of bringing so many extras...It was overall quiet with friendly fellow travelers.  The laundry facilities were very nice.  Internet, but need an ether net cable to get online.  Late night security guy was very far from knowledgeable, not the sharpest tool in the shed...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r14003117-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>14003117</t>
+  </si>
+  <si>
+    <t>03/02/2008</t>
+  </si>
+  <si>
+    <t>Not too bad for the price, but missing a few things</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 2 weeks while my husband and I were trying to find a new apartment. It is a long-term stay hotel, where you pay by the week. It is a real bargain, when you divide the weekly rate by 7 days. The rooms are furnished with a plasma screen tv, a full size fridge, a rank cooktop, and a sink. There are 3 sizes of rooms to choose from.We were in the smallest of the 3 "floorplans".
+Anyway, to keep costs down, there is no daily maid service. That can be good or bad depending on your preferences. They only clean 1 time every other week, and when we were there the maid forgot, and our room didn't get cleaned at all. They do give you the option (for $7 extra per week) to bring down dirty towels and bed linens,as they get dirty, to the front desk, and have them exchanged for fresh, clean ones. That was a nice touch, I must add.
+Another problem that I have never experienced in any hotel before was that I could hear the upstairs guests walking around above us, sounding like a herd of elephants. (We were on the second floor, with 2 or 3 above us). I am guessing this is a result of shoddy construction.
+Because they try to run things on the cheap, there is no 24-hr staff,  only daytime hours, M-Sat, closed on...We stayed at this hotel for 2 weeks while my husband and I were trying to find a new apartment. It is a long-term stay hotel, where you pay by the week. It is a real bargain, when you divide the weekly rate by 7 days. The rooms are furnished with a plasma screen tv, a full size fridge, a rank cooktop, and a sink. There are 3 sizes of rooms to choose from.We were in the smallest of the 3 "floorplans".Anyway, to keep costs down, there is no daily maid service. That can be good or bad depending on your preferences. They only clean 1 time every other week, and when we were there the maid forgot, and our room didn't get cleaned at all. They do give you the option (for $7 extra per week) to bring down dirty towels and bed linens,as they get dirty, to the front desk, and have them exchanged for fresh, clean ones. That was a nice touch, I must add.Another problem that I have never experienced in any hotel before was that I could hear the upstairs guests walking around above us, sounding like a herd of elephants. (We were on the second floor, with 2 or 3 above us). I am guessing this is a result of shoddy construction.Because they try to run things on the cheap, there is no 24-hr staff,  only daytime hours, M-Sat, closed on Sunday, so there is no one to complain to for small issues after hours, only a hotline for emergencies. The staff was not overly friendly, more like moody, and inconsistent. You are charged quite high rates for telephone calls, even local ones, which I found a bit unfair.I did have one emergency though that bears mentioning: the rooms open with that modern standard issue "room key card" that is inserted into the door until the green light appears. Well, the room key had to be inserted numerous times before it would open the door, and one time just stopped working all together...at 3 am in the morning when I was coming home from a late night out. I had to call the on-site maintenance, drag her out of bed, and have her redo the key. She told me it was easily demagnitized by cell phones and/or credit cards. That is surely understandable, but it is puzzling that I've used key cards all over the world, kept them next to credit cards, etc... and never have I had the trouble that I did at Value Place.Also, the room was missing drapes. Not just our room, but every room. If you need any kind of day sleep, be sure to bring a sleeping eye mask. Be warned!One final thing, this might be a small complaint, but the second story hallway stunk! It smelled like a combination of b.o and mold. Sometimes I had to breathe through my nose just to get to my room.At first I thought it was a good value, but after comparing other hotels that even charge by the night, it is just "mehhw".MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 2 weeks while my husband and I were trying to find a new apartment. It is a long-term stay hotel, where you pay by the week. It is a real bargain, when you divide the weekly rate by 7 days. The rooms are furnished with a plasma screen tv, a full size fridge, a rank cooktop, and a sink. There are 3 sizes of rooms to choose from.We were in the smallest of the 3 "floorplans".
+Anyway, to keep costs down, there is no daily maid service. That can be good or bad depending on your preferences. They only clean 1 time every other week, and when we were there the maid forgot, and our room didn't get cleaned at all. They do give you the option (for $7 extra per week) to bring down dirty towels and bed linens,as they get dirty, to the front desk, and have them exchanged for fresh, clean ones. That was a nice touch, I must add.
+Another problem that I have never experienced in any hotel before was that I could hear the upstairs guests walking around above us, sounding like a herd of elephants. (We were on the second floor, with 2 or 3 above us). I am guessing this is a result of shoddy construction.
+Because they try to run things on the cheap, there is no 24-hr staff,  only daytime hours, M-Sat, closed on...We stayed at this hotel for 2 weeks while my husband and I were trying to find a new apartment. It is a long-term stay hotel, where you pay by the week. It is a real bargain, when you divide the weekly rate by 7 days. The rooms are furnished with a plasma screen tv, a full size fridge, a rank cooktop, and a sink. There are 3 sizes of rooms to choose from.We were in the smallest of the 3 "floorplans".Anyway, to keep costs down, there is no daily maid service. That can be good or bad depending on your preferences. They only clean 1 time every other week, and when we were there the maid forgot, and our room didn't get cleaned at all. They do give you the option (for $7 extra per week) to bring down dirty towels and bed linens,as they get dirty, to the front desk, and have them exchanged for fresh, clean ones. That was a nice touch, I must add.Another problem that I have never experienced in any hotel before was that I could hear the upstairs guests walking around above us, sounding like a herd of elephants. (We were on the second floor, with 2 or 3 above us). I am guessing this is a result of shoddy construction.Because they try to run things on the cheap, there is no 24-hr staff,  only daytime hours, M-Sat, closed on Sunday, so there is no one to complain to for small issues after hours, only a hotline for emergencies. The staff was not overly friendly, more like moody, and inconsistent. You are charged quite high rates for telephone calls, even local ones, which I found a bit unfair.I did have one emergency though that bears mentioning: the rooms open with that modern standard issue "room key card" that is inserted into the door until the green light appears. Well, the room key had to be inserted numerous times before it would open the door, and one time just stopped working all together...at 3 am in the morning when I was coming home from a late night out. I had to call the on-site maintenance, drag her out of bed, and have her redo the key. She told me it was easily demagnitized by cell phones and/or credit cards. That is surely understandable, but it is puzzling that I've used key cards all over the world, kept them next to credit cards, etc... and never have I had the trouble that I did at Value Place.Also, the room was missing drapes. Not just our room, but every room. If you need any kind of day sleep, be sure to bring a sleeping eye mask. Be warned!One final thing, this might be a small complaint, but the second story hallway stunk! It smelled like a combination of b.o and mold. Sometimes I had to breathe through my nose just to get to my room.At first I thought it was a good value, but after comparing other hotels that even charge by the night, it is just "mehhw".More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1409,2271 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>127</v>
+      </c>
+      <c r="X14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>172</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>178</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>204</v>
+      </c>
+      <c r="X26" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>212</v>
+      </c>
+      <c r="X27" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>221</v>
+      </c>
+      <c r="X28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>230</v>
+      </c>
+      <c r="X29" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>239</v>
+      </c>
+      <c r="X30" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>247</v>
+      </c>
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" t="s">
+        <v>103</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>255</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" t="s">
+        <v>257</v>
+      </c>
+      <c r="K33" t="s">
+        <v>258</v>
+      </c>
+      <c r="L33" t="s">
+        <v>259</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>260</v>
+      </c>
+      <c r="O33" t="s">
+        <v>103</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>267</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>274</v>
+      </c>
+      <c r="O35" t="s">
+        <v>57</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>277</v>
+      </c>
+      <c r="J36" t="s">
+        <v>278</v>
+      </c>
+      <c r="K36" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>281</v>
+      </c>
+      <c r="O36" t="s">
+        <v>97</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_784.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_784.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Saints357</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t>If you are looking for a budget extended stay this is place. Its located near a lot of great eateries and shopping. Cleaning service is only done every weeks. You have to check out utensils,cookware and the iron from the front desk. Towels arent replenised daily. I stayed on the 4th floor and the smell was awful from other tenants cooking. My entire 13 days the smell was awful up there.I made a complaint about it and I was told to deal with! And that I had a choice to go elsewhere.</t>
   </si>
   <si>
+    <t>lulu B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r491610665-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>This recently hotel recently rebranded from ValuePlace to Woodspring Suites.I have been nothing but impressed since my arrival for my daughter's residency graduation from Parkland.We arrived very early morning (had alerted hotel of very late arrival) and check in was quick and safety attendant was friendly.Since I am a general manager of a new Woodspring Suites , I am a very picky guest of any hotel I stay at. I have been nothing but impressed at this well maintained property. It is quite apparent how good the management and housekeeping staff are just by looking around. I found absolutely no evidence of prior guests i.e. hairs in bathroom, crumbs in drawers or under bed. And believe me, I checked our room as soon as we opened the door. The room was furnished with 2 double bedsand all appliances worked. My hats off to the lead housekeeper and management team . I would without hesitation recommend this to my friends and family.And if any of my guests are helped this way, I will mention how lovely my stay has been. This will be my hotel of choice when I come visit my daughter in the future. All the staff can pay themselves on the back for doing a wonderful job. You deserve it! I truly appreciate the very clean and stress free stay I am having. Come and experience the WoodSpring way. It's Simple.Done better.More</t>
   </si>
   <si>
+    <t>Katie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r491587390-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
     <t>The hotel has a nice kitchen, but you have to bring your own utensils, cooking items, and pans. We ended up spending more money to get things to cook in than we would have saved and that was the whole reason we stayed here. The room was carpeted and the carpet was STICKY! Gross! The beds were terrible too. They were only a mattress on a bed frame and so they slipped off the metal frame whenever your tried to sit. They overbooked the room we were supposed to get, with a bed and a couch, so we got "upgraded" to two beds. I wanted a couch for a reason! The window sill was falling off the window and the bathroom floor was held together with gorilla glue. We were there for 4 nights and they never once emptied our trash, brought us new towels, or brought us more toilet paper. We had to walk down to ask for toilet paper and even then, the person at the desk was pretty rude about giving it to us. The room was supposed to be for 4 people, but they only gave us 2 twoels. There was no binder or information, so we weren't even sure when checkout was. We waited until the front desk opened and were told that there was no formal checkout, so we wasted time that we could have been driving home. I've filled out 2 reviews that...The hotel has a nice kitchen, but you have to bring your own utensils, cooking items, and pans. We ended up spending more money to get things to cook in than we would have saved and that was the whole reason we stayed here. The room was carpeted and the carpet was STICKY! Gross! The beds were terrible too. They were only a mattress on a bed frame and so they slipped off the metal frame whenever your tried to sit. They overbooked the room we were supposed to get, with a bed and a couch, so we got "upgraded" to two beds. I wanted a couch for a reason! The window sill was falling off the window and the bathroom floor was held together with gorilla glue. We were there for 4 nights and they never once emptied our trash, brought us new towels, or brought us more toilet paper. We had to walk down to ask for toilet paper and even then, the person at the desk was pretty rude about giving it to us. The room was supposed to be for 4 people, but they only gave us 2 twoels. There was no binder or information, so we weren't even sure when checkout was. We waited until the front desk opened and were told that there was no formal checkout, so we wasted time that we could have been driving home. I've filled out 2 reviews that went directly to the company and haven't heard anything back about my complaints. I would not recommend this to my worst enemy!More</t>
   </si>
   <si>
+    <t>Houston_Traveler55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r447063105-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>T N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r364372901-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>We stayed here for 8 months. Of all the Value Places we stayed at, this was by far the best. Anita was the nicest front desk manager we've encountered.  She was never without a smile or a laugh, she always tried to make others happy/smile.  She was always a ray of sunshine even if she was really tired.  The rest of the staff was nice too.  I got a full turkey from work for Thanksgiving that could not fit in our tiny crock pot, so we gave it to the night security girl.  Anita suggested us to give it to her since we didn't want to throw it away but it was too big for two people and we wanted to give it away, so we did!  One of the guys on staff killed a wasp that got into our room. I'm scared of them, and we went down stairs and talked to the front desk. The guy didn't make any fuss over us not wanting to kill it ourselves. He kindly went up and killed it for us! Value place needs to look at promoting Anita up to the highest training manager to where she travels around the country training every Value Place front desk staff. I've never met a nicer Value Place manager or just ahotel manager nicer than her.More</t>
   </si>
   <si>
+    <t>Herb B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r326418878-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Sonya30659</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r303904799-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>I can't say enough how friendly the staff was.  They were welcoming and helpful.   They even easily accommodated my need to check out earlier than scheduled due to changes in our travel plans. The rooms were nice enough. There are no plates, etc so bring your own. We ended up on the top floor and the person below us complained (nicely) about hearing our daughter jumping and playing around.  He was there for work and had to get up really early.  We didn't have anyone above us to confirm the noise transfer,  but that seemed to be a problem.   Because of the larger room and style of furnishings,  it was louder.  (At our next hotel, for example,  she could jump on the bed and there was no sound).I would recommend staying here for the price and full kitchen.   There is no pool though. Restaurants and Wal-Mart were close by,  which was nice too.More</t>
   </si>
   <si>
+    <t>Vandana G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r299380565-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Ed M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r297290728-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Daniel T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r268993205-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -348,6 +378,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>GregandJanet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r266926338-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -361,6 +394,9 @@
   </si>
   <si>
     <t>Stayed for 5 nights while our house was being worked on. Friendly staff, clean, just the basics. Supposed to be a non-smoking hotel. Friday night at about 2:00 AM smelled smoke and called front desk. Too lazy to come to our floor and check it out. Seems they don't want to enforce the no smoking rule, and don't care about their guests. Too bad!</t>
+  </si>
+  <si>
+    <t>Buyer2007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r258871920-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -402,6 +438,9 @@
 Didn't mind taking out the trash, but minded that the trash was a walk from...I'll start with the good, the place is clean, safe and priced well.Beds are high enough to store tons of stuff under.Staff was very nice and polite.But if your looking for the bad (like I do) here it is, first of all the window don't open more than few inches, so in order for us to cook in the room we had to open the window, turn on the bathroom fan and the fan on top of the cooking stove thing.Still after all that the room will smell and your clothing will smell as well.Speaking of cooking, you have to bring or buy your own everything, cups, pots, pans and and and.We stayed there for a long time but paid weekly, but for some reason our key would stop working a day short of what we paid, so if we paid from say Sunday to Sunday our key would stop working on Saturday, which was very annoying.Pay for a week, key should work for a week not 6 days.Internet is extra, for the decent speed one is $20 and it's only for 3 devices, which may seem like enough but if you got a laptop, phone and iPad your done! no one else in your room can work their laptop or any other device for that matter.Didn't mind taking out the trash, but minded that the trash was a walk from the hotel.Now we stayed for a long time (long enough not to pay tax) but on check out what was upsetting that they couldn't pro-rate our rate for us, we needed few extra days not the entire week and basically the rate for the night doubled!It was almost cheaper to book for a week and leave the room empty!Or if your not like us and didn't accumulate stuff and can move easy, go to the Hampton and enjoy the free internet and a better room for the same rate.  Some nights the people above us seem to work out and drop the weights on the floor every few minutes and also the people across from us like to party up to 2 am. Again it's a good value, but now that we left we have tons of stuff we don't need any more as in towels, plates, pots and pans (cheap ones as it was a temp thing) and and and.   But if you need a place to stay for extended time and on a budget this is the place for sure.It will do, again it's clean, safe and cheap. Much cheaper than renting a place or getting a hotel room without a kitchen.More</t>
   </si>
   <si>
+    <t>Heather N. T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r232314906-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -426,6 +465,9 @@
     <t>My family was new to the area so it took a few different hotel stays before we were blessed and found this one until our home was ready. It's quiet and I loved the staff, always went out of their way for us if needed. Met some pretty nice people who were staying there. If you want to be in a safe, clean place this would be it, if staying in and around the Irving area. As far as the social sites issues I have to agree with that statement. Just keep your location off your phone and keep posts private. Jason was by far my favorite;) Aneita and Eric were sweet also, housekeeping always nice but never met anyone else. We stayed 1.5 months.More</t>
   </si>
   <si>
+    <t>661kirkk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r219173315-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -444,6 +486,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>craig m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r218565001-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -459,6 +504,9 @@
     <t>Tried to talk to manager Adam who says he owns that hotel all he did was talk down about his staff. What a shame. staff was great. He is a bad manager. Clean rooms, friendly staff. I don't know how they stay so nice when there boss treats them like dirt</t>
   </si>
   <si>
+    <t>MonicaWB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r196923818-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -477,6 +525,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>J M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r196679725-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -495,6 +546,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Rick M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r196311408-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -513,6 +567,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>ontheroad1984</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r161881203-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -534,6 +591,9 @@
     <t>Let me start off with I have never stayed in an extended stay hotel. Due to job transfer was forced into this.Room was filthy. Just bought a Swifter to clean the entrance and bathroom floors and filled up a garbage bag full of filthy pads. Looks like it has not been mopped in years.Bought a toilet brush to clean the bowl. Under the rim disgusting. Cleaned and sanitized the seat, which is filled with stains.Shower looks like it has been cleaned. Never. Massive spots all over it.Room is cleaned once every 2 weeks. Can you imagine?Mattress sits on board. No box spring. Pillows lumpy, heaven knows what is lurking inside them. Some sort of mattress pad has lumps in it as well.No HD TV. Limited channels.No wireless internet. Cannot use the iPad. There are whole families living in the rooms next to mine, slam doors all day long.Dying for my relo to come through.....More</t>
   </si>
   <si>
+    <t>intltraveller13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r157546016-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -555,6 +615,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Travel G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r151937785-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -576,6 +639,9 @@
     <t>This place just sucks $239/week with additional taxes and this totals to $271/week.  The internet is wired and they charge $10/week.  The commercial says they clean twice a week but it is just once.  There is no reception, HAHA, the reception counter is always closed, what kind of a service is this, you call 500 and then a lady comes after 5 minutes to help you!Toilets are dirty from inside and television sets are screwed to the tables and are so small and far away.Please stay far away from this place.Internet speed is bad, they give you a code, common after paying almost $40/day, you can't provide internet, ridiculous.  People living here buy routers and buy internet from the Value Place.  Again, Internet speed is limited even after the payment, what kind of a place is this?More</t>
   </si>
   <si>
+    <t>Vicki B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r138156692-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -594,6 +660,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Nick T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r137549876-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -615,6 +684,9 @@
     <t>Value Place in Trophy Club, Texas is an excellent hotel.  As a person who has traveled frequently for business and used hotels across the United States, I can safely say that Value Place, Trophy Club rates toward the top of the list.The common space and the rooms are very clean.  The location is very good.  The surrounding area is very good.  The building is very secure - plus the staff members are consistently watching the activity outside the hotel to ensure added security around vehicles, etc.The staff is really great.  Each person including the Manager, the office staff and the housekeeping staff are friendly and detail oriented.  Any requests or questions that I have had have been addressed quickly with thorough follow-up.  I am very happy with the entire hotel operation at Value Place, Trophy Club, TX.  Would I stay at the hotel again?  Absolutely!Nick T.More</t>
   </si>
   <si>
+    <t>Toni L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r137312333-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -630,6 +702,9 @@
     <t>we enjoyed our stay here.  the accommodations were very clean and though others found the beds uncomfortable we slept well.  My son has back trouble when beds are too hard and he did well.  We are aware this is a no frills hotel but it was comfortable enough for a vacation and the $300 we saved by staying here was definitely worth carrying out our trash and providing our on bathroom tissue.   I would certainly be willing to stay her in the future on longer vacations.</t>
   </si>
   <si>
+    <t>kafba63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r129884326-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -657,6 +732,9 @@
     <t>After selling our house sooner than expected we needed a place to stay for a week or two until we could find a new place.The young women at the desk were friendly and helpful. The after hours desk/security person was prompt and friendly as well.The room was clean and the other guests quiet ---mostly working people like us.The only thing that wasn't so great was that our room was near one of the outside security lights and there are no blackout curtains.  It was like daylight 24 hours a day inside the room.Other than that, I'd stay there again and would recommend the place to a friend.More</t>
   </si>
   <si>
+    <t>Terry D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r128167354-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -679,6 +757,9 @@
   </si>
   <si>
     <t>I must admit that this Value Place is one if not the best place I have stayed during my travels. My grandson and I stay here twice a year when we attend the Nascar races in Ft. Worth. The hotel is alway clean and the staff is eager to assist and very helpful. We look forward to our stay here again in November 2012.More</t>
+  </si>
+  <si>
+    <t>Natalie J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r127542714-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -720,6 +801,9 @@
 Overall, I would pay extra 5$ per day and book an...We stayed here for 3weeks to save some money but ended up spending more. Even though the staff is good, that is just not enough. Here is my honest feedback, read this before moving in.1) Room service only once in 2weeks, that too they dont change sheets/comforter or pillow cases, they DONT provide toilet papers or soaps or shampoo or vaccumm carpet unless you ask for it. 2) The room doesnt come with any utensils what so ever. No iron box either. Pay extra to get them.3) There is a very small TV in every room and they have hooked it to the TV desk such that it cannot even be moved an inch. so the screen will face in one direction and if you sit on sofa or the bed, the angle does NOT match and it CANNOT be adjusted.4) They charge 10$ for internet which is DAMN slow, takes while to open webpages forget about watching videos.5) You CANNOT cook in the room as it is going to stink! because the only window in the room cannot be opened. They have put a solid block on every window, such that we cannot open window more than an 2inches, so their is no air circulation. Also because of this we had to eat out Daily... so there is no point in having a kitchenette!Overall, I would pay extra 5$ per day and book an extended stay instead of value place.. because at the end of the day.. its going to cost the same!!!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>Melissa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r122847825-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -747,6 +831,9 @@
     <t>The entire experience was positive. I stayed here for several weeks in November 2011 and plan to stay again in March 2012 while looking for a permanent residence.  Simply stated: the rooms were both comfortable and clean and the staff was both friendly and professional.  On the few occassions when I needed something; it was handled quickly.  I would recommend this hotel to any of my friends and family.More</t>
   </si>
   <si>
+    <t>kim b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r117246195-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -774,6 +861,9 @@
     <t>This is my second time to stay here and it is even better than the first time. My family and I have been here since March while we look for a house to buy in Trophy Club. The new manager is great and responds quickly to your needs.The safety here is great also. The housecleaning always does a wonderful job in keeping our room clean.This is an  excellent place to stay and the price is very affordable. I recommend this hotel to anyone looking for a safe,clean and great price to all.More</t>
   </si>
   <si>
+    <t>PEGSLIFE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r98841625-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -792,6 +882,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>future700</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r83764518-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -813,6 +906,9 @@
     <t>I've been at value place since may 2010. Like most posts on this site..it has an affordable rate for long term stay travellers and individuals/families in transition or vacation. The staff is very friendly and my room is very clean and just what I need for now. With many hotels there are flaws but we adjust especially if you let the management team know your complaints in advance. It is definitely a great place to stay because of great location, great price, nice staff, safe area, very clean hotel, and all the amenities that I need to call home for now. My only concern is the bed was too firm. It was not comfortable at all but I went out and bought a mattress cover and that resolved that problem.  I let the hotel know about the bed. The housekeepers do a great job of cleaning the room. So far my experience has been great.More</t>
   </si>
   <si>
+    <t>Shawn587</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r83409620-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -832,6 +928,9 @@
   </si>
   <si>
     <t>I've been here since mid August, and I couldnt imagine staying anywhere else in the DFW area.  Katherine (manager) is an excellent manager. She is always prompt in any request you might need, and follows up to make sure your request was followed thru to the "T" !!.....Let's not forget the asst mgr Ann....very professional too !!  The house keeping  staff (Sandra &amp; Jorge) are aces also !!.. This hotel is VERY well maintained !  I work for a major employer in the DFW area, and I would highly recommend this place to my fellow employees, or anyone traveling travelling thru the area. You WILL NOT be disappointed !!!!  - Shawn S. , Ft Worth Tx.More</t>
+  </si>
+  <si>
+    <t>JTyme83</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r74701407-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -859,6 +958,9 @@
 The location was very convenient, and only about 15 minutes from Dallas, and Ft. Worth. Restaurants, and grocery stores are close by, but I would recommend having a car at this location as there isn’t much within walking distance. The hotel doesn’t have many amenities, but the price and friendly...We arrived at the hotel late, and by all appearances it seemed closed. Apparently no one mans the desk after business hours. This was new to me as I’m used to hotels with a 24/7 staff, and someone always being available at the front desk. Not a big deal, they had a phone in the lobby that we were able to call security on and get checked into the hotel. It took a few minutes before the security guard arrived, but once he did we were greeted warmly, and checked into the hotel promptly.We had never stayed at a Value Place, and weren’t sure what to expect in the rooms, but everything turned out ok. The best way I can describe the room is as an upscale dorm or small efficiency. There is no big screen TV, or king size pillow top bed, but the room was clean and functional, and overall, it was comfortable. It was just what I needed, at a price that was extremely affordable. For what I paid for one week here, I’ve spent for a single night more times than I’d like to remember.The location was very convenient, and only about 15 minutes from Dallas, and Ft. Worth. Restaurants, and grocery stores are close by, but I would recommend having a car at this location as there isn’t much within walking distance. The hotel doesn’t have many amenities, but the price and friendly service make up for the lack of a swimming pool, or fitness center. Which by the way the staff offered me a special rate at fitness center across the highway if I wanted to workout.Overall, the staff, and cost of lodging were what we liked best about the location. We were treated like we were staying at a 5 star hotel, but paying a 2 star price.What I liked least about the hotel were the beds. They are on the firm side, but the staff even helped us with that. Apparently they had some spare mattresses, and they went out of their way to stack a second mattress on top of the first which made for a good nights sleep.More</t>
   </si>
   <si>
+    <t>tiffeecanoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r35615969-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -882,6 +984,9 @@
     <t>Had a pretty ok stay at Value Place in Trophy Club, TX this month.  It's amenities are VERY basic.  It was overall clean, but the carpets were very poorly vacuumed and I did find hair in the tub.  The provided towels were so small and thin they barely dried off a 7-year-old...so I recommend bringing your own.  They also don't seem to provide an additional roll of toilet paper on the cleaning day...so for four of us staying there, one roll of toilet paper did not go far...  The bedding is pretty horrible, was glad to have had sleeping bags along.   The TV is VERY tiny.   I've never stayed at an extended stay place before, but while visiting family, it made the most sense seeing we were more or less just sleeping there... I wasn't sure what exactly to expect and I suppose now I know that if I'm trying to acheive a certain level of comfort I must bring own bedding, pillows, towels, shampoo/conditioner, etc.  They provide a bar of soap and 2 plastic cups...and a laundry basket. 
 The price is right so I may stay at one again if I'm somewhere for a solid week or more, but it would require much more careful, thoughtful packing next time... not sure I want to go through the hassle of bringing so many extras...
 It was overall quiet with friendly fellow travelers.  The laundry facilities were very nice.  Internet, but...Had a pretty ok stay at Value Place in Trophy Club, TX this month.  It's amenities are VERY basic.  It was overall clean, but the carpets were very poorly vacuumed and I did find hair in the tub.  The provided towels were so small and thin they barely dried off a 7-year-old...so I recommend bringing your own.  They also don't seem to provide an additional roll of toilet paper on the cleaning day...so for four of us staying there, one roll of toilet paper did not go far...  The bedding is pretty horrible, was glad to have had sleeping bags along.   The TV is VERY tiny.   I've never stayed at an extended stay place before, but while visiting family, it made the most sense seeing we were more or less just sleeping there... I wasn't sure what exactly to expect and I suppose now I know that if I'm trying to acheive a certain level of comfort I must bring own bedding, pillows, towels, shampoo/conditioner, etc.  They provide a bar of soap and 2 plastic cups...and a laundry basket. The price is right so I may stay at one again if I'm somewhere for a solid week or more, but it would require much more careful, thoughtful packing next time... not sure I want to go through the hassle of bringing so many extras...It was overall quiet with friendly fellow travelers.  The laundry facilities were very nice.  Internet, but need an ether net cable to get online.  Late night security guy was very far from knowledgeable, not the sharpest tool in the shed...More</t>
+  </si>
+  <si>
+    <t>Mallyrose87</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r14003117-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -1413,34 +1518,38 @@
       <c r="A2" t="n">
         <v>55866</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>182572</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
@@ -1459,50 +1568,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55866</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>182573</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1516,50 +1629,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55866</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>3599</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1579,50 +1696,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55866</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>68444</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1640,50 +1761,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55866</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>82564</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1697,50 +1822,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55866</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>182574</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1764,50 +1893,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55866</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>182575</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1821,50 +1954,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55866</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>182576</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1882,50 +2019,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55866</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>15564</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1943,50 +2084,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55866</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>36321</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2010,50 +2155,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55866</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>182577</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2067,50 +2216,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>55866</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>182578</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2128,41 +2281,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>55866</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>182579</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
@@ -2189,56 +2346,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="X14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>55866</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>182580</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2262,41 +2423,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>55866</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>67233</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
@@ -2325,50 +2490,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>55866</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>182581</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2392,50 +2561,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>55866</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>11667</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2459,50 +2632,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>55866</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>14861</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2526,50 +2703,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>55866</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>182582</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2593,50 +2774,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>55866</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>182583</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -2660,50 +2845,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>55866</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>182584</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2727,50 +2916,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>55866</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>63498</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2794,50 +2987,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>55866</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>12055</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="J24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2861,50 +3058,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>55866</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>87142</v>
+      </c>
+      <c r="C25" t="s">
+        <v>216</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -2928,50 +3129,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>55866</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>182585</v>
+      </c>
+      <c r="C26" t="s">
+        <v>222</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -2993,56 +3198,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="X26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="Y26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>55866</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>35028</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="O27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3064,56 +3273,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="X27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="Y27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>55866</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>182586</v>
+      </c>
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="O28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3135,56 +3348,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="X28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>55866</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>7320</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3206,56 +3423,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="X29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="Y29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>55866</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>32648</v>
+      </c>
+      <c r="C30" t="s">
+        <v>261</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="J30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3273,56 +3494,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="X30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="Y30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>55866</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>182587</v>
+      </c>
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3346,50 +3571,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>55866</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>182588</v>
+      </c>
+      <c r="C32" t="s">
+        <v>278</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="J32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="K32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="O32" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3413,50 +3642,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>55866</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>182589</v>
+      </c>
+      <c r="C33" t="s">
+        <v>286</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="J33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3472,50 +3705,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>55866</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>182590</v>
+      </c>
+      <c r="C34" t="s">
+        <v>294</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="J34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="K34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3539,50 +3776,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>55866</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>62552</v>
+      </c>
+      <c r="C35" t="s">
+        <v>302</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="J35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="K35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="O35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3606,50 +3847,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>55866</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>182591</v>
+      </c>
+      <c r="C36" t="s">
+        <v>310</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -3671,7 +3916,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_784.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_784.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="442">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Saints357</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r577762546-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>56789</t>
+  </si>
+  <si>
+    <t>816266</t>
+  </si>
+  <si>
+    <t>577762546</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Terrible Hotel</t>
+  </si>
+  <si>
+    <t>What sort of extended stay hotel with kitchens in the room don’t have utensils?  The rooms are only cleaned every 14 days—this includes towels and toilet paper.  Are you kidding me?  This is the worst place I have ever stayed...</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r539867257-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>539867257</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Great Place, But......</t>
+  </si>
+  <si>
+    <t>Love everything about this hotel, with ONE exception. Had a problem "regulating" the hot water every day, but otherwise, is a great hotel. Can't wait to go back. Breakfast buffet very, very good.Can't wait to return.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r510757900-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
-    <t>56789</t>
-  </si>
-  <si>
-    <t>816266</t>
-  </si>
-  <si>
     <t>510757900</t>
   </si>
   <si>
@@ -174,9 +213,6 @@
     <t>If you are looking for a budget extended stay this is place. Its located near a lot of great eateries and shopping. Cleaning service is only done every weeks. You have to check out utensils,cookware and the iron from the front desk. Towels arent replenised daily. I stayed on the 4th floor and the smell was awful from other tenants cooking. My entire 13 days the smell was awful up there.I made a complaint about it and I was told to deal with! And that I had a choice to go elsewhere.</t>
   </si>
   <si>
-    <t>lulu B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r491610665-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -195,15 +231,9 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>This recently hotel recently rebranded from ValuePlace to Woodspring Suites.I have been nothing but impressed since my arrival for my daughter's residency graduation from Parkland.We arrived very early morning (had alerted hotel of very late arrival) and check in was quick and safety attendant was friendly.Since I am a general manager of a new Woodspring Suites , I am a very picky guest of any hotel I stay at. I have been nothing but impressed at this well maintained property. It is quite apparent how good the management and housekeeping staff are just by looking around. I found absolutely no evidence of prior guests i.e. hairs in bathroom, crumbs in drawers or under bed. And believe me, I checked our room as soon as we opened the door. The room was furnished with 2 double bedsand all appliances worked. My hats off to the lead housekeeper and management team . I would without hesitation recommend this to my friends and family.And if any of my guests are helped this way, I will mention how lovely my stay has been. This will be my hotel of choice when I come visit my daughter in the future. All the staff can pay themselves on the back for doing a wonderful job. You deserve it! I truly appreciate the very clean and stress free stay I am having. Come and experience the WoodSpring way. It's Simple.Done better.More</t>
   </si>
   <si>
-    <t>Katie H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r491587390-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -219,7 +249,43 @@
     <t>The hotel has a nice kitchen, but you have to bring your own utensils, cooking items, and pans. We ended up spending more money to get things to cook in than we would have saved and that was the whole reason we stayed here. The room was carpeted and the carpet was STICKY! Gross! The beds were terrible too. They were only a mattress on a bed frame and so they slipped off the metal frame whenever your tried to sit. They overbooked the room we were supposed to get, with a bed and a couch, so we got "upgraded" to two beds. I wanted a couch for a reason! The window sill was falling off the window and the bathroom floor was held together with gorilla glue. We were there for 4 nights and they never once emptied our trash, brought us new towels, or brought us more toilet paper. We had to walk down to ask for toilet paper and even then, the person at the desk was pretty rude about giving it to us. The room was supposed to be for 4 people, but they only gave us 2 twoels. There was no binder or information, so we weren't even sure when checkout was. We waited until the front desk opened and were told that there was no formal checkout, so we wasted time that we could have been driving home. I've filled out 2 reviews that...The hotel has a nice kitchen, but you have to bring your own utensils, cooking items, and pans. We ended up spending more money to get things to cook in than we would have saved and that was the whole reason we stayed here. The room was carpeted and the carpet was STICKY! Gross! The beds were terrible too. They were only a mattress on a bed frame and so they slipped off the metal frame whenever your tried to sit. They overbooked the room we were supposed to get, with a bed and a couch, so we got "upgraded" to two beds. I wanted a couch for a reason! The window sill was falling off the window and the bathroom floor was held together with gorilla glue. We were there for 4 nights and they never once emptied our trash, brought us new towels, or brought us more toilet paper. We had to walk down to ask for toilet paper and even then, the person at the desk was pretty rude about giving it to us. The room was supposed to be for 4 people, but they only gave us 2 twoels. There was no binder or information, so we weren't even sure when checkout was. We waited until the front desk opened and were told that there was no formal checkout, so we wasted time that we could have been driving home. I've filled out 2 reviews that went directly to the company and haven't heard anything back about my complaints. I would not recommend this to my worst enemy!More</t>
   </si>
   <si>
-    <t>Houston_Traveler55</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r470446954-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>470446954</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>What did my money go towards exactly??</t>
+  </si>
+  <si>
+    <t>Vacation with my husband and our 2 under 4 kids...getting a place with a kitchen seemed like a really good idea. I made the mistake of booking through Hotel.com and got very bad information. Unfortunately, the only redeeming quality of this place was the staff. They were friendly and as helpful as they could be. Everything else was terrible. We were told at the beginning of our stay that the rooms were cleaned every 3 days. Nope. Actually, it's every 2 weeks (our stay is 13 nights). We had to take dirty sheets and towels down to the office (not even a laundry drop off), ask for replacements including toilet paper (there are 4 people in 1 room!), take out our trash to the dumpster clear across the parking lot, the remote needed new batteries, our fridge broke down the second day we were there, and the toilet pretty much runs non-stop. I am currently listening to someone in the other room have a conversation on their cell...it is at normal conversation levels. Our door keycard reader quit working and had to be reprogrammed today. Don't be fooled by their claim of FREE wi-fi. If you don't mind slow connection speeds, sure it's free. But if you need anything better it will cost you $13 a week.  TV is basic cable but doesn't match the Channel Guide provided. Ended up paying the $13 just so my kids could watch something...Vacation with my husband and our 2 under 4 kids...getting a place with a kitchen seemed like a really good idea. I made the mistake of booking through Hotel.com and got very bad information. Unfortunately, the only redeeming quality of this place was the staff. They were friendly and as helpful as they could be. Everything else was terrible. We were told at the beginning of our stay that the rooms were cleaned every 3 days. Nope. Actually, it's every 2 weeks (our stay is 13 nights). We had to take dirty sheets and towels down to the office (not even a laundry drop off), ask for replacements including toilet paper (there are 4 people in 1 room!), take out our trash to the dumpster clear across the parking lot, the remote needed new batteries, our fridge broke down the second day we were there, and the toilet pretty much runs non-stop. I am currently listening to someone in the other room have a conversation on their cell...it is at normal conversation levels. Our door keycard reader quit working and had to be reprogrammed today. Don't be fooled by their claim of FREE wi-fi. If you don't mind slow connection speeds, sure it's free. But if you need anything better it will cost you $13 a week.  TV is basic cable but doesn't match the Channel Guide provided. Ended up paying the $13 just so my kids could watch something other than Teen Titans first thing in the morning!! You can pay $3 a load ($1.50 wash, $1.50 dry) to do your laundry, so there is that. There is also NO other amenities. Not even a picnic table or grass area outside. *NOTE* this hotel is right off the highway and does not offer soundproof windows. You will hear some road noise. Not awful though, as the air conditioning unit is much louder. This has by far been one of the worst hotel experiences I've had.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Vacation with my husband and our 2 under 4 kids...getting a place with a kitchen seemed like a really good idea. I made the mistake of booking through Hotel.com and got very bad information. Unfortunately, the only redeeming quality of this place was the staff. They were friendly and as helpful as they could be. Everything else was terrible. We were told at the beginning of our stay that the rooms were cleaned every 3 days. Nope. Actually, it's every 2 weeks (our stay is 13 nights). We had to take dirty sheets and towels down to the office (not even a laundry drop off), ask for replacements including toilet paper (there are 4 people in 1 room!), take out our trash to the dumpster clear across the parking lot, the remote needed new batteries, our fridge broke down the second day we were there, and the toilet pretty much runs non-stop. I am currently listening to someone in the other room have a conversation on their cell...it is at normal conversation levels. Our door keycard reader quit working and had to be reprogrammed today. Don't be fooled by their claim of FREE wi-fi. If you don't mind slow connection speeds, sure it's free. But if you need anything better it will cost you $13 a week.  TV is basic cable but doesn't match the Channel Guide provided. Ended up paying the $13 just so my kids could watch something...Vacation with my husband and our 2 under 4 kids...getting a place with a kitchen seemed like a really good idea. I made the mistake of booking through Hotel.com and got very bad information. Unfortunately, the only redeeming quality of this place was the staff. They were friendly and as helpful as they could be. Everything else was terrible. We were told at the beginning of our stay that the rooms were cleaned every 3 days. Nope. Actually, it's every 2 weeks (our stay is 13 nights). We had to take dirty sheets and towels down to the office (not even a laundry drop off), ask for replacements including toilet paper (there are 4 people in 1 room!), take out our trash to the dumpster clear across the parking lot, the remote needed new batteries, our fridge broke down the second day we were there, and the toilet pretty much runs non-stop. I am currently listening to someone in the other room have a conversation on their cell...it is at normal conversation levels. Our door keycard reader quit working and had to be reprogrammed today. Don't be fooled by their claim of FREE wi-fi. If you don't mind slow connection speeds, sure it's free. But if you need anything better it will cost you $13 a week.  TV is basic cable but doesn't match the Channel Guide provided. Ended up paying the $13 just so my kids could watch something other than Teen Titans first thing in the morning!! You can pay $3 a load ($1.50 wash, $1.50 dry) to do your laundry, so there is that. There is also NO other amenities. Not even a picnic table or grass area outside. *NOTE* this hotel is right off the highway and does not offer soundproof windows. You will hear some road noise. Not awful though, as the air conditioning unit is much louder. This has by far been one of the worst hotel experiences I've had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r460232198-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>460232198</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Has potential...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am not a high maintenance person, however, this was a rough trip for me. I came here on business and stayed four nights.  The staff was fine and explained everything.  As far as cleanliness goes, it seemed acceptable.  I gave a low score because of the bed.  It wasn't just uncomfortable.  It was so uncomfortable, that I woke up with kinks and sore muscles every day.  It felt like a childs mattress that had been used for 20 year prior.  It was hard, lumpy, and loud.  I would have rather slept at home on my carpet.  Horrible. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r447063105-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -240,12 +306,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>T N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r364372901-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -267,9 +327,6 @@
     <t>We stayed here for 8 months. Of all the Value Places we stayed at, this was by far the best. Anita was the nicest front desk manager we've encountered.  She was never without a smile or a laugh, she always tried to make others happy/smile.  She was always a ray of sunshine even if she was really tired.  The rest of the staff was nice too.  I got a full turkey from work for Thanksgiving that could not fit in our tiny crock pot, so we gave it to the night security girl.  Anita suggested us to give it to her since we didn't want to throw it away but it was too big for two people and we wanted to give it away, so we did!  One of the guys on staff killed a wasp that got into our room. I'm scared of them, and we went down stairs and talked to the front desk. The guy didn't make any fuss over us not wanting to kill it ourselves. He kindly went up and killed it for us! Value place needs to look at promoting Anita up to the highest training manager to where she travels around the country training every Value Place front desk staff. I've never met a nicer Value Place manager or just ahotel manager nicer than her.More</t>
   </si>
   <si>
-    <t>Herb B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r326418878-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -288,7 +345,46 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>Sonya30659</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r322520030-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>322520030</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>The Staff Makes All the Difference</t>
+  </si>
+  <si>
+    <t>We stayed about a month while our new house was closing. We came here after a week at the Southlake Hilton. The staff was, far and away more solicitous, friendly, helpful and efficient than at the Hilton. The rooms were bigger and, of course, MUCH less expensive for an extended stay. Our two rooms were super clean, well maintained &amp; cleaned regularly. The only short sighted thing about the rooms was the quality of the cabinets and faucets/fixtures. The fridge, microwave &amp; stove were good, but counters and cabinets were cheaply made pressboard and need replacing. The lobby is non-existent, just a window in a hallway, and the lack of outer markings makes it difficult to tell where the entrance is at first. Having said that, the people who work there make all the difference. Aneita, Cynthia, Christian, David and the cleaning staff are great people who take pride in their work and are willing to help in any way they can. From giving us a hand with luggage and groceries to making spare keys (repeatedly) to printing closing docs for us to sign, to recommending restaurants and shops in the area, they were super helpful and very professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We stayed about a month while our new house was closing. We came here after a week at the Southlake Hilton. The staff was, far and away more solicitous, friendly, helpful and efficient than at the Hilton. The rooms were bigger and, of course, MUCH less expensive for an extended stay. Our two rooms were super clean, well maintained &amp; cleaned regularly. The only short sighted thing about the rooms was the quality of the cabinets and faucets/fixtures. The fridge, microwave &amp; stove were good, but counters and cabinets were cheaply made pressboard and need replacing. The lobby is non-existent, just a window in a hallway, and the lack of outer markings makes it difficult to tell where the entrance is at first. Having said that, the people who work there make all the difference. Aneita, Cynthia, Christian, David and the cleaning staff are great people who take pride in their work and are willing to help in any way they can. From giving us a hand with luggage and groceries to making spare keys (repeatedly) to printing closing docs for us to sign, to recommending restaurants and shops in the area, they were super helpful and very professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r314558390-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>314558390</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>The front desk service is very good, rooms clean, de AC is quiet, the smell in the hallway  from people cooking can be pretty offensive.No utensils in the kitchen, we did not care since we did not cook there.There was no housekeeping during out stay, this was also ok with us, the towels dry from morning to evening so we could shower twice a day. You get only a little soap bar, so you will need to buy your toiletry, water and so on. We were a little annoyed by the noise transference from the floor above us. Luckily they went to sleep about the same time we did.Overall a good experienceMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The front desk service is very good, rooms clean, de AC is quiet, the smell in the hallway  from people cooking can be pretty offensive.No utensils in the kitchen, we did not care since we did not cook there.There was no housekeeping during out stay, this was also ok with us, the towels dry from morning to evening so we could shower twice a day. You get only a little soap bar, so you will need to buy your toiletry, water and so on. We were a little annoyed by the noise transference from the floor above us. Luckily they went to sleep about the same time we did.Overall a good experienceMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r303904799-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -312,9 +408,6 @@
     <t>I can't say enough how friendly the staff was.  They were welcoming and helpful.   They even easily accommodated my need to check out earlier than scheduled due to changes in our travel plans. The rooms were nice enough. There are no plates, etc so bring your own. We ended up on the top floor and the person below us complained (nicely) about hearing our daughter jumping and playing around.  He was there for work and had to get up really early.  We didn't have anyone above us to confirm the noise transfer,  but that seemed to be a problem.   Because of the larger room and style of furnishings,  it was louder.  (At our next hotel, for example,  she could jump on the bed and there was no sound).I would recommend staying here for the price and full kitchen.   There is no pool though. Restaurants and Wal-Mart were close by,  which was nice too.More</t>
   </si>
   <si>
-    <t>Vandana G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r299380565-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -333,12 +426,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Ed M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r297290728-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -357,7 +444,44 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Daniel T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r291234418-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>291234418</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Great Staff, Great Hotel</t>
+  </si>
+  <si>
+    <t>I have to share my experience staying at Value Place extended stay hotel in Trophy Club TX. I was in need of a place to stay in-between houses and I chose Value Place because of the convenient location. The day I checked in I was very pleased they had a room available for immediate check in, and even my desired location within the hotel, I wanted to be on the ground level.  I have to tell anyone considering an extended stay hotel; I would stay here again in a minute! 
+The staff at this particular extended stay hotel was “OUTSTANDING”! I could not have been happier with every staff member I came in contact with, from the location Manager Anita to the ladies that cleaned my room. I have to say again this staff was outstanding… I ended up needing to stay for a little over two months while I was house shopping and going through the stress of finding a new home, it didn’t take long for me to realize I would enjoy my stay because the staff made me feel right at home.  
+Let’s start with Anita; her bright personality was very welcoming the day I first rented my room. She got me checked in right away, even gave me menu’s for local fast food restaurants that deliver to the hotel. She explained everything to me on how the weekly rate worked and services offered at Value Place....I have to share my experience staying at Value Place extended stay hotel in Trophy Club TX. I was in need of a place to stay in-between houses and I chose Value Place because of the convenient location. The day I checked in I was very pleased they had a room available for immediate check in, and even my desired location within the hotel, I wanted to be on the ground level.  I have to tell anyone considering an extended stay hotel; I would stay here again in a minute! The staff at this particular extended stay hotel was “OUTSTANDING”! I could not have been happier with every staff member I came in contact with, from the location Manager Anita to the ladies that cleaned my room. I have to say again this staff was outstanding… I ended up needing to stay for a little over two months while I was house shopping and going through the stress of finding a new home, it didn’t take long for me to realize I would enjoy my stay because the staff made me feel right at home.  Let’s start with Anita; her bright personality was very welcoming the day I first rented my room. She got me checked in right away, even gave me menu’s for local fast food restaurants that deliver to the hotel. She explained everything to me on how the weekly rate worked and services offered at Value Place.  Anita is very good at her job! I had one problem come up and Anita was quick to make sure it was taken care of and that I was happy! Next let’s talk about Jacquelyn; what a TREASURE! I really enjoyed getting to know Jacquelyn, her sense of humor and wit was so appreciated. Even the one time my key didn’t work at 5:30am she came to get me in my room right away. Jacquelyn was very pleasant, and apologetic about the situation. At 5:30am it could have been a very different attitude and I was very thankful for her immediate assistance as I needed to get ready for work. I have to say I felt like she became a friend by the time I left yet in a professional relationship kind of way. I can honestly say I miss her!Last but not least David; what a nice man! Never without a smile, very professional, great guy!  I just can’t tell you how much I appreciate each and every one of the staff I have mentioned by name but like I said earlier, everyone I came in contact with during my stay was very nice, professional and accommodating. Thank You to each and every one of you.. I appreciate each of you more than you know.Sincerely,Billy WilliamsMoreShow less</t>
+  </si>
+  <si>
+    <t>I have to share my experience staying at Value Place extended stay hotel in Trophy Club TX. I was in need of a place to stay in-between houses and I chose Value Place because of the convenient location. The day I checked in I was very pleased they had a room available for immediate check in, and even my desired location within the hotel, I wanted to be on the ground level.  I have to tell anyone considering an extended stay hotel; I would stay here again in a minute! 
+The staff at this particular extended stay hotel was “OUTSTANDING”! I could not have been happier with every staff member I came in contact with, from the location Manager Anita to the ladies that cleaned my room. I have to say again this staff was outstanding… I ended up needing to stay for a little over two months while I was house shopping and going through the stress of finding a new home, it didn’t take long for me to realize I would enjoy my stay because the staff made me feel right at home.  
+Let’s start with Anita; her bright personality was very welcoming the day I first rented my room. She got me checked in right away, even gave me menu’s for local fast food restaurants that deliver to the hotel. She explained everything to me on how the weekly rate worked and services offered at Value Place....I have to share my experience staying at Value Place extended stay hotel in Trophy Club TX. I was in need of a place to stay in-between houses and I chose Value Place because of the convenient location. The day I checked in I was very pleased they had a room available for immediate check in, and even my desired location within the hotel, I wanted to be on the ground level.  I have to tell anyone considering an extended stay hotel; I would stay here again in a minute! The staff at this particular extended stay hotel was “OUTSTANDING”! I could not have been happier with every staff member I came in contact with, from the location Manager Anita to the ladies that cleaned my room. I have to say again this staff was outstanding… I ended up needing to stay for a little over two months while I was house shopping and going through the stress of finding a new home, it didn’t take long for me to realize I would enjoy my stay because the staff made me feel right at home.  Let’s start with Anita; her bright personality was very welcoming the day I first rented my room. She got me checked in right away, even gave me menu’s for local fast food restaurants that deliver to the hotel. She explained everything to me on how the weekly rate worked and services offered at Value Place.  Anita is very good at her job! I had one problem come up and Anita was quick to make sure it was taken care of and that I was happy! Next let’s talk about Jacquelyn; what a TREASURE! I really enjoyed getting to know Jacquelyn, her sense of humor and wit was so appreciated. Even the one time my key didn’t work at 5:30am she came to get me in my room right away. Jacquelyn was very pleasant, and apologetic about the situation. At 5:30am it could have been a very different attitude and I was very thankful for her immediate assistance as I needed to get ready for work. I have to say I felt like she became a friend by the time I left yet in a professional relationship kind of way. I can honestly say I miss her!Last but not least David; what a nice man! Never without a smile, very professional, great guy!  I just can’t tell you how much I appreciate each and every one of the staff I have mentioned by name but like I said earlier, everyone I came in contact with during my stay was very nice, professional and accommodating. Thank You to each and every one of you.. I appreciate each of you more than you know.Sincerely,Billy WilliamsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r281234036-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>281234036</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>We were new to the area and David said there were no current vacancies but he called his boss at home to see if one would open up. Called us back within 5 minutes and we were able to book a nice room. Thank you David for getting back to.us so quickly, we love the area.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r268993205-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -378,9 +502,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>GregandJanet</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r266926338-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -394,9 +515,6 @@
   </si>
   <si>
     <t>Stayed for 5 nights while our house was being worked on. Friendly staff, clean, just the basics. Supposed to be a non-smoking hotel. Friday night at about 2:00 AM smelled smoke and called front desk. Too lazy to come to our floor and check it out. Seems they don't want to enforce the no smoking rule, and don't care about their guests. Too bad!</t>
-  </si>
-  <si>
-    <t>Buyer2007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r258871920-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -438,7 +556,52 @@
 Didn't mind taking out the trash, but minded that the trash was a walk from...I'll start with the good, the place is clean, safe and priced well.Beds are high enough to store tons of stuff under.Staff was very nice and polite.But if your looking for the bad (like I do) here it is, first of all the window don't open more than few inches, so in order for us to cook in the room we had to open the window, turn on the bathroom fan and the fan on top of the cooking stove thing.Still after all that the room will smell and your clothing will smell as well.Speaking of cooking, you have to bring or buy your own everything, cups, pots, pans and and and.We stayed there for a long time but paid weekly, but for some reason our key would stop working a day short of what we paid, so if we paid from say Sunday to Sunday our key would stop working on Saturday, which was very annoying.Pay for a week, key should work for a week not 6 days.Internet is extra, for the decent speed one is $20 and it's only for 3 devices, which may seem like enough but if you got a laptop, phone and iPad your done! no one else in your room can work their laptop or any other device for that matter.Didn't mind taking out the trash, but minded that the trash was a walk from the hotel.Now we stayed for a long time (long enough not to pay tax) but on check out what was upsetting that they couldn't pro-rate our rate for us, we needed few extra days not the entire week and basically the rate for the night doubled!It was almost cheaper to book for a week and leave the room empty!Or if your not like us and didn't accumulate stuff and can move easy, go to the Hampton and enjoy the free internet and a better room for the same rate.  Some nights the people above us seem to work out and drop the weights on the floor every few minutes and also the people across from us like to party up to 2 am. Again it's a good value, but now that we left we have tons of stuff we don't need any more as in towels, plates, pots and pans (cheap ones as it was a temp thing) and and and.   But if you need a place to stay for extended time and on a budget this is the place for sure.It will do, again it's clean, safe and cheap. Much cheaper than renting a place or getting a hotel room without a kitchen.More</t>
   </si>
   <si>
-    <t>Heather N. T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r242657688-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>242657688</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 3 weeks and we were  very satisfied with the hotel and service. The staff was very efficient and the hotel and grounds well maintained.  We plan to stay at the Value Place hotels in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Sean A, Owner at WoodSpring Suites Fort Worth Trophy Club, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 3 weeks and we were  very satisfied with the hotel and service. The staff was very efficient and the hotel and grounds well maintained.  We plan to stay at the Value Place hotels in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r234570821-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>234570821</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Friendly employees</t>
+  </si>
+  <si>
+    <t>When I always needed help, i always received help. Jason and Erick are very nice people, I always received a smile and they resolved all my inquiries.The housekeeping exceeded  my expectations, they offered a deep clean and not just a superficial clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>When I always needed help, i always received help. Jason and Erick are very nice people, I always received a smile and they resolved all my inquiries.The housekeeping exceeded  my expectations, they offered a deep clean and not just a superficial clean.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r232314906-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -456,18 +619,9 @@
     <t>My family was new to the area so it took a few different hotel stays before we were blessed and found this one until our home was ready. It's quiet and I loved the staff, always went out of their way for us if needed. Met some pretty nice people who were staying there. If you want to be in a safe, clean place this would be it, if staying in and around the Irving area. As far as the social sites issues I have to agree with that statement. Just keep your location off your phone and keep posts private. Jason was by far my favorite;) Aneita and Eric were sweet also, housekeeping always nice but never met anyone else. We stayed 1.5 months.MoreShow less</t>
   </si>
   <si>
-    <t>Sean A, Owner at WoodSpring Suites Fort Worth Trophy Club, responded to this reviewResponded February 25, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 25, 2015</t>
-  </si>
-  <si>
     <t>My family was new to the area so it took a few different hotel stays before we were blessed and found this one until our home was ready. It's quiet and I loved the staff, always went out of their way for us if needed. Met some pretty nice people who were staying there. If you want to be in a safe, clean place this would be it, if staying in and around the Irving area. As far as the social sites issues I have to agree with that statement. Just keep your location off your phone and keep posts private. Jason was by far my favorite;) Aneita and Eric were sweet also, housekeeping always nice but never met anyone else. We stayed 1.5 months.More</t>
   </si>
   <si>
-    <t>661kirkk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r219173315-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -486,9 +640,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>craig m</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r218565001-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -504,7 +655,37 @@
     <t>Tried to talk to manager Adam who says he owns that hotel all he did was talk down about his staff. What a shame. staff was great. He is a bad manager. Clean rooms, friendly staff. I don't know how they stay so nice when there boss treats them like dirt</t>
   </si>
   <si>
-    <t>MonicaWB</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r215001769-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>215001769</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>If you wanna experience customer service, stay here!!!</t>
+  </si>
+  <si>
+    <t>Great location, excellent price and super friendly people! The daytime front desk is always pleasant! I stayed there longer than I needed just because it was so nice.... I never felt unsafe or not welcome. After taking a short trip to Houston and staying there at another hotel chain I was so ready to get back to my room at Value Place.  Thank you Value Place for changing my mind on extended stay hotels.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r198370479-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>198370479</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>I would not stay at any other hotel from now on.</t>
+  </si>
+  <si>
+    <t>I had stayed here for close to 2 months and the whole time was nothing but pleasant surprise. Without making this review sound like a bogus review written by an employee I must say I will not choose any other hotel for extended stay. The rooms and public areas were spotless, the staff was very courteous and helpful. They looked and acted like they genuinely enjoy and take pride in working there and it showed time and time again. I could go on and on, but in summary younwill not find anything that could match the value and service of this place anywhere else.Howard L.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r196923818-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -525,9 +706,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>J M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r196679725-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -546,9 +724,6 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>Rick M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r196311408-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -567,7 +742,47 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>ontheroad1984</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r190335892-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>190335892</t>
+  </si>
+  <si>
+    <t>01/09/2014</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service!</t>
+  </si>
+  <si>
+    <t>My 80-year old father was awaiting his new senior living apartment's construction to be completed and needed an extended stay from October 30, 2013 through January 3, 2014.  From the first phone call to Value Place Trophy Club, the customer service was second to none!  Anita and Manager Adam were incredibly courteous and kind and put my mind at ease to trust that my Dad would be safe and happy at their hotel.  I must have called them 10 times a week and they never made me feel like a pest; instead, they made me feel like my Dad was their only guest and their priority.  During his stay, they checked on him, looked in on him and graciously gave him my many messages.  The hotel room was clean and had all the comforts of home, which allowed my Dad to rest and relax during his stay.  I can't express in words how much I appreciate Anita and Adam's compassion, caring, attentive nature but most of all their genuine caring for their guest's comfort and well-being.  I highly recommend Value Place Trophy Club to anyone in need of an extended stay in the Metroplex.  My Dad and I were so fortunate to choose this hotel over any other in this area.  Huge thanks to two beautiful human beings, Anita and Adam, who go above and beyond in all they do.MoreShow less</t>
+  </si>
+  <si>
+    <t>My 80-year old father was awaiting his new senior living apartment's construction to be completed and needed an extended stay from October 30, 2013 through January 3, 2014.  From the first phone call to Value Place Trophy Club, the customer service was second to none!  Anita and Manager Adam were incredibly courteous and kind and put my mind at ease to trust that my Dad would be safe and happy at their hotel.  I must have called them 10 times a week and they never made me feel like a pest; instead, they made me feel like my Dad was their only guest and their priority.  During his stay, they checked on him, looked in on him and graciously gave him my many messages.  The hotel room was clean and had all the comforts of home, which allowed my Dad to rest and relax during his stay.  I can't express in words how much I appreciate Anita and Adam's compassion, caring, attentive nature but most of all their genuine caring for their guest's comfort and well-being.  I highly recommend Value Place Trophy Club to anyone in need of an extended stay in the Metroplex.  My Dad and I were so fortunate to choose this hotel over any other in this area.  Huge thanks to two beautiful human beings, Anita and Adam, who go above and beyond in all they do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r181614139-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>181614139</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>Clean, Basic, and a Good Deal</t>
+  </si>
+  <si>
+    <t>I stayed here for one week since it was very close to my new job, and I wasn't able to move into my new apt yet.  I had never stayed in an extended stay hotel before and didn't know what to expect.    The hotel was well maintained and the room, although basic, was absolutely spotless.   I felt safe, the staff at the front desk was nice, and the hotel was very quiet.  Note that it is located next to a busy highway, and although it wasn't that noticeable, if you are a very light sleeper you may want to ask for a room that doesn't face the highway.     
+Very minimal extras are provided.  Some towels, a bar of soap, 2 plastic disposable cups, and some hangers.  You'll need to bring all your own kitchen supplies (there are no utensils, plates, etc..) or you can buy a basic kitchen set from the front desk (same with coffee maker).  You can check-out an iron and board from the front desk, but make sure you note the office hours.  (If you need to iron a shirt before work, you'll be out of luck).  There is no wireless internet so bring your own ethernet cable (bring a long cable as the outlet is on the opposite side of the room as the bed).  The internet connection was reliable and although not super fast, it was ok.  
+To sum it up, it's a very basic...I stayed here for one week since it was very close to my new job, and I wasn't able to move into my new apt yet.  I had never stayed in an extended stay hotel before and didn't know what to expect.    The hotel was well maintained and the room, although basic, was absolutely spotless.   I felt safe, the staff at the front desk was nice, and the hotel was very quiet.  Note that it is located next to a busy highway, and although it wasn't that noticeable, if you are a very light sleeper you may want to ask for a room that doesn't face the highway.     Very minimal extras are provided.  Some towels, a bar of soap, 2 plastic disposable cups, and some hangers.  You'll need to bring all your own kitchen supplies (there are no utensils, plates, etc..) or you can buy a basic kitchen set from the front desk (same with coffee maker).  You can check-out an iron and board from the front desk, but make sure you note the office hours.  (If you need to iron a shirt before work, you'll be out of luck).  There is no wireless internet so bring your own ethernet cable (bring a long cable as the outlet is on the opposite side of the room as the bed).  The internet connection was reliable and although not super fast, it was ok.  To sum it up, it's a very basic room (with kitchen), but a great deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for one week since it was very close to my new job, and I wasn't able to move into my new apt yet.  I had never stayed in an extended stay hotel before and didn't know what to expect.    The hotel was well maintained and the room, although basic, was absolutely spotless.   I felt safe, the staff at the front desk was nice, and the hotel was very quiet.  Note that it is located next to a busy highway, and although it wasn't that noticeable, if you are a very light sleeper you may want to ask for a room that doesn't face the highway.     
+Very minimal extras are provided.  Some towels, a bar of soap, 2 plastic disposable cups, and some hangers.  You'll need to bring all your own kitchen supplies (there are no utensils, plates, etc..) or you can buy a basic kitchen set from the front desk (same with coffee maker).  You can check-out an iron and board from the front desk, but make sure you note the office hours.  (If you need to iron a shirt before work, you'll be out of luck).  There is no wireless internet so bring your own ethernet cable (bring a long cable as the outlet is on the opposite side of the room as the bed).  The internet connection was reliable and although not super fast, it was ok.  
+To sum it up, it's a very basic...I stayed here for one week since it was very close to my new job, and I wasn't able to move into my new apt yet.  I had never stayed in an extended stay hotel before and didn't know what to expect.    The hotel was well maintained and the room, although basic, was absolutely spotless.   I felt safe, the staff at the front desk was nice, and the hotel was very quiet.  Note that it is located next to a busy highway, and although it wasn't that noticeable, if you are a very light sleeper you may want to ask for a room that doesn't face the highway.     Very minimal extras are provided.  Some towels, a bar of soap, 2 plastic disposable cups, and some hangers.  You'll need to bring all your own kitchen supplies (there are no utensils, plates, etc..) or you can buy a basic kitchen set from the front desk (same with coffee maker).  You can check-out an iron and board from the front desk, but make sure you note the office hours.  (If you need to iron a shirt before work, you'll be out of luck).  There is no wireless internet so bring your own ethernet cable (bring a long cable as the outlet is on the opposite side of the room as the bed).  The internet connection was reliable and although not super fast, it was ok.  To sum it up, it's a very basic room (with kitchen), but a great deal.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r161881203-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -591,9 +806,6 @@
     <t>Let me start off with I have never stayed in an extended stay hotel. Due to job transfer was forced into this.Room was filthy. Just bought a Swifter to clean the entrance and bathroom floors and filled up a garbage bag full of filthy pads. Looks like it has not been mopped in years.Bought a toilet brush to clean the bowl. Under the rim disgusting. Cleaned and sanitized the seat, which is filled with stains.Shower looks like it has been cleaned. Never. Massive spots all over it.Room is cleaned once every 2 weeks. Can you imagine?Mattress sits on board. No box spring. Pillows lumpy, heaven knows what is lurking inside them. Some sort of mattress pad has lumps in it as well.No HD TV. Limited channels.No wireless internet. Cannot use the iPad. There are whole families living in the rooms next to mine, slam doors all day long.Dying for my relo to come through.....More</t>
   </si>
   <si>
-    <t>intltraveller13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r157546016-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -615,9 +827,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Travel G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r151937785-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -639,7 +848,43 @@
     <t>This place just sucks $239/week with additional taxes and this totals to $271/week.  The internet is wired and they charge $10/week.  The commercial says they clean twice a week but it is just once.  There is no reception, HAHA, the reception counter is always closed, what kind of a service is this, you call 500 and then a lady comes after 5 minutes to help you!Toilets are dirty from inside and television sets are screwed to the tables and are so small and far away.Please stay far away from this place.Internet speed is bad, they give you a code, common after paying almost $40/day, you can't provide internet, ridiculous.  People living here buy routers and buy internet from the Value Place.  Again, Internet speed is limited even after the payment, what kind of a place is this?More</t>
   </si>
   <si>
-    <t>Vicki B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r145288333-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>145288333</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Reasonable, clean and homely</t>
+  </si>
+  <si>
+    <t>I stayed in Value Place Trophy club for 7 and 1/2 months from Feb 2012. I had a wonderful experience. The place is clean, safe, well maintained and reasonable. The staff is nice and friendly. The rooms are well maintained and clean. They have a good parking space and the lovely southlake area around for a nice evening walk. The only drawback i guess is the location. There is not much around close by to visit or hangout but with a vehicle at hand it should be fine. i was traveling from India and dd not have a driving license so it was a little inconvenient for grocery shopping. But else the place is really very nice to stay. the guests are all decent too. i will recommend value place to my friends for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I stayed in Value Place Trophy club for 7 and 1/2 months from Feb 2012. I had a wonderful experience. The place is clean, safe, well maintained and reasonable. The staff is nice and friendly. The rooms are well maintained and clean. They have a good parking space and the lovely southlake area around for a nice evening walk. The only drawback i guess is the location. There is not much around close by to visit or hangout but with a vehicle at hand it should be fine. i was traveling from India and dd not have a driving license so it was a little inconvenient for grocery shopping. But else the place is really very nice to stay. the guests are all decent too. i will recommend value place to my friends for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r140038323-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>140038323</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>Real Value for money</t>
+  </si>
+  <si>
+    <t>Our family stayed here for over 2 months at a stretch during summer. The stay was very pleasant throughout and we did not experience any untoward incident of any sort, the place is clean and so were the guests I believe. If you are a person who loves to walk outside for keeping fit, this place is ideal to walk at the Trophy Club on the Indian Creek drive. The front office staffs were kind and always helpful, good people on earth. True value for money to be honest. Overall, we enjoyed our stay for very affordable weekly rate.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r138156692-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -657,12 +902,6 @@
     <t>The staff and people who manage this motel are friendly and caring!  They treat you like family and go out of their way to help you. I would have liked to had a better mattress because of my back so I rated "sleep" average.  Rooms and common areas are very clean.  The location is ideal.  Great value for a temporary residence!  My stay was for 7 weeks.</t>
   </si>
   <si>
-    <t>July 2012</t>
-  </si>
-  <si>
-    <t>Nick T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r137549876-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -684,9 +923,6 @@
     <t>Value Place in Trophy Club, Texas is an excellent hotel.  As a person who has traveled frequently for business and used hotels across the United States, I can safely say that Value Place, Trophy Club rates toward the top of the list.The common space and the rooms are very clean.  The location is very good.  The surrounding area is very good.  The building is very secure - plus the staff members are consistently watching the activity outside the hotel to ensure added security around vehicles, etc.The staff is really great.  Each person including the Manager, the office staff and the housekeeping staff are friendly and detail oriented.  Any requests or questions that I have had have been addressed quickly with thorough follow-up.  I am very happy with the entire hotel operation at Value Place, Trophy Club, TX.  Would I stay at the hotel again?  Absolutely!Nick T.More</t>
   </si>
   <si>
-    <t>Toni L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r137312333-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -702,7 +938,55 @@
     <t>we enjoyed our stay here.  the accommodations were very clean and though others found the beds uncomfortable we slept well.  My son has back trouble when beds are too hard and he did well.  We are aware this is a no frills hotel but it was comfortable enough for a vacation and the $300 we saved by staying here was definitely worth carrying out our trash and providing our on bathroom tissue.   I would certainly be willing to stay her in the future on longer vacations.</t>
   </si>
   <si>
-    <t>kafba63</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r134239135-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>134239135</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for!</t>
+  </si>
+  <si>
+    <t>The hotel staff was decent, except they refuse to fully enforce their written rules.  When parents let their kids run around at all hours and the staff just tells them to stop or makes up some excuse not to do anything, it made for a horrible stay.  The only reason, I didn't leave is because I was too busy to find a new place that would come close to the price and location.  I have never seen a hotel care so little about some of their guests.  I will drive the extra distance rather than pay for a horrible place that is noisy from 5pm to 1am everyday.  The staff never offered me anything, even though I continuously complained about the same issues, the noise level and kids running around.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Fort Worth Trophy Club, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>The hotel staff was decent, except they refuse to fully enforce their written rules.  When parents let their kids run around at all hours and the staff just tells them to stop or makes up some excuse not to do anything, it made for a horrible stay.  The only reason, I didn't leave is because I was too busy to find a new place that would come close to the price and location.  I have never seen a hotel care so little about some of their guests.  I will drive the extra distance rather than pay for a horrible place that is noisy from 5pm to 1am everyday.  The staff never offered me anything, even though I continuously complained about the same issues, the noise level and kids running around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r133210579-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>133210579</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>Great Place to stay</t>
+  </si>
+  <si>
+    <t>I've been staying at the Value Place for about 3 weeks now. The staff have been most helpful and always cheerful whenever approached with a request. The facilities have been everything agreed to when I checked in.  I will be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2012</t>
+  </si>
+  <si>
+    <t>I've been staying at the Value Place for about 3 weeks now. The staff have been most helpful and always cheerful whenever approached with a request. The facilities have been everything agreed to when I checked in.  I will be staying here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r129884326-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -732,9 +1016,6 @@
     <t>After selling our house sooner than expected we needed a place to stay for a week or two until we could find a new place.The young women at the desk were friendly and helpful. The after hours desk/security person was prompt and friendly as well.The room was clean and the other guests quiet ---mostly working people like us.The only thing that wasn't so great was that our room was near one of the outside security lights and there are no blackout curtains.  It was like daylight 24 hours a day inside the room.Other than that, I'd stay there again and would recommend the place to a friend.More</t>
   </si>
   <si>
-    <t>Terry D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r128167354-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -757,9 +1038,6 @@
   </si>
   <si>
     <t>I must admit that this Value Place is one if not the best place I have stayed during my travels. My grandson and I stay here twice a year when we attend the Nascar races in Ft. Worth. The hotel is alway clean and the staff is eager to assist and very helpful. We look forward to our stay here again in November 2012.More</t>
-  </si>
-  <si>
-    <t>Natalie J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r127542714-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -801,7 +1079,55 @@
 Overall, I would pay extra 5$ per day and book an...We stayed here for 3weeks to save some money but ended up spending more. Even though the staff is good, that is just not enough. Here is my honest feedback, read this before moving in.1) Room service only once in 2weeks, that too they dont change sheets/comforter or pillow cases, they DONT provide toilet papers or soaps or shampoo or vaccumm carpet unless you ask for it. 2) The room doesnt come with any utensils what so ever. No iron box either. Pay extra to get them.3) There is a very small TV in every room and they have hooked it to the TV desk such that it cannot even be moved an inch. so the screen will face in one direction and if you sit on sofa or the bed, the angle does NOT match and it CANNOT be adjusted.4) They charge 10$ for internet which is DAMN slow, takes while to open webpages forget about watching videos.5) You CANNOT cook in the room as it is going to stink! because the only window in the room cannot be opened. They have put a solid block on every window, such that we cannot open window more than an 2inches, so their is no air circulation. Also because of this we had to eat out Daily... so there is no point in having a kitchenette!Overall, I would pay extra 5$ per day and book an extended stay instead of value place.. because at the end of the day.. its going to cost the same!!!!!!!!!!!!More</t>
   </si>
   <si>
-    <t>Melissa S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r125938086-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>125938086</t>
+  </si>
+  <si>
+    <t>03/11/2012</t>
+  </si>
+  <si>
+    <t>Staying for Work</t>
+  </si>
+  <si>
+    <t>We have had at least 6 rooms here for the last 2 months. Everyone here has been friendly and helpful, no matter when you need their help. We travel all over the country working, and I would have to say that it has been very pleasant here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Fort Worth Trophy Club, responded to this reviewResponded March 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2012</t>
+  </si>
+  <si>
+    <t>We have had at least 6 rooms here for the last 2 months. Everyone here has been friendly and helpful, no matter when you need their help. We travel all over the country working, and I would have to say that it has been very pleasant here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r124521621-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>124521621</t>
+  </si>
+  <si>
+    <t>02/13/2012</t>
+  </si>
+  <si>
+    <t>Good Location and Good People</t>
+  </si>
+  <si>
+    <t>I have stayed at In Town properties and this property (Value Place - Trophy Club) is so much nicer. The people are accomadating and willing to help you. I really enjoyed staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kirk H, Director of Sales at WoodSpring Suites Fort Worth Trophy Club, responded to this reviewResponded February 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at In Town properties and this property (Value Place - Trophy Club) is so much nicer. The people are accomadating and willing to help you. I really enjoyed staying here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r122847825-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -831,9 +1157,6 @@
     <t>The entire experience was positive. I stayed here for several weeks in November 2011 and plan to stay again in March 2012 while looking for a permanent residence.  Simply stated: the rooms were both comfortable and clean and the staff was both friendly and professional.  On the few occassions when I needed something; it was handled quickly.  I would recommend this hotel to any of my friends and family.More</t>
   </si>
   <si>
-    <t>kim b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r117246195-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -861,9 +1184,6 @@
     <t>This is my second time to stay here and it is even better than the first time. My family and I have been here since March while we look for a house to buy in Trophy Club. The new manager is great and responds quickly to your needs.The safety here is great also. The housecleaning always does a wonderful job in keeping our room clean.This is an  excellent place to stay and the price is very affordable. I recommend this hotel to anyone looking for a safe,clean and great price to all.More</t>
   </si>
   <si>
-    <t>PEGSLIFE</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r98841625-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -882,7 +1202,40 @@
     <t>February 2011</t>
   </si>
   <si>
-    <t>future700</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r98595666-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>98595666</t>
+  </si>
+  <si>
+    <t>03/01/2011</t>
+  </si>
+  <si>
+    <t>Great Place for your money and time!!!</t>
+  </si>
+  <si>
+    <t>Staff is very friendly.  Rooms are great and spacious.  Anything goes wrong the staff is there to fix the problem right away.  Hotel is very safe and comfy.  Will come back again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r84929723-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>84929723</t>
+  </si>
+  <si>
+    <t>10/26/2010</t>
+  </si>
+  <si>
+    <t>Friendly staff and very clean</t>
+  </si>
+  <si>
+    <t>My Fiance and I stayed here for 3 months due to relocation.  I was very impressed with the cleaniness, from the lobby to our room. The parking lot is well lit and that helps in making it a safe enviroment. Every day after I came in from work I was greated with a smile by someone at the front desk.  They knew our names and always acknowledge us. Regardless of how late at nite or early in the morning it was when I would forget or demagnetiz my key and needed assistance, they were prompt and I always received a warm smile.  Considering how difficult and stressful  living in a hotel for an extended period of time can be, everyone made me feel comfortable and at home.  Value Place, Trophy Club became my home away from home. Thank you to Anne, David and especially Katherine (Manager) for making our uncomfortable time in life enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>My Fiance and I stayed here for 3 months due to relocation.  I was very impressed with the cleaniness, from the lobby to our room. The parking lot is well lit and that helps in making it a safe enviroment. Every day after I came in from work I was greated with a smile by someone at the front desk.  They knew our names and always acknowledge us. Regardless of how late at nite or early in the morning it was when I would forget or demagnetiz my key and needed assistance, they were prompt and I always received a warm smile.  Considering how difficult and stressful  living in a hotel for an extended period of time can be, everyone made me feel comfortable and at home.  Value Place, Trophy Club became my home away from home. Thank you to Anne, David and especially Katherine (Manager) for making our uncomfortable time in life enjoyable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r83764518-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -906,9 +1259,6 @@
     <t>I've been at value place since may 2010. Like most posts on this site..it has an affordable rate for long term stay travellers and individuals/families in transition or vacation. The staff is very friendly and my room is very clean and just what I need for now. With many hotels there are flaws but we adjust especially if you let the management team know your complaints in advance. It is definitely a great place to stay because of great location, great price, nice staff, safe area, very clean hotel, and all the amenities that I need to call home for now. My only concern is the bed was too firm. It was not comfortable at all but I went out and bought a mattress cover and that resolved that problem.  I let the hotel know about the bed. The housekeepers do a great job of cleaning the room. So far my experience has been great.More</t>
   </si>
   <si>
-    <t>Shawn587</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r83409620-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -928,9 +1278,6 @@
   </si>
   <si>
     <t>I've been here since mid August, and I couldnt imagine staying anywhere else in the DFW area.  Katherine (manager) is an excellent manager. She is always prompt in any request you might need, and follows up to make sure your request was followed thru to the "T" !!.....Let's not forget the asst mgr Ann....very professional too !!  The house keeping  staff (Sandra &amp; Jorge) are aces also !!.. This hotel is VERY well maintained !  I work for a major employer in the DFW area, and I would highly recommend this place to my fellow employees, or anyone traveling travelling thru the area. You WILL NOT be disappointed !!!!  - Shawn S. , Ft Worth Tx.More</t>
-  </si>
-  <si>
-    <t>JTyme83</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r74701407-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -958,7 +1305,59 @@
 The location was very convenient, and only about 15 minutes from Dallas, and Ft. Worth. Restaurants, and grocery stores are close by, but I would recommend having a car at this location as there isn’t much within walking distance. The hotel doesn’t have many amenities, but the price and friendly...We arrived at the hotel late, and by all appearances it seemed closed. Apparently no one mans the desk after business hours. This was new to me as I’m used to hotels with a 24/7 staff, and someone always being available at the front desk. Not a big deal, they had a phone in the lobby that we were able to call security on and get checked into the hotel. It took a few minutes before the security guard arrived, but once he did we were greeted warmly, and checked into the hotel promptly.We had never stayed at a Value Place, and weren’t sure what to expect in the rooms, but everything turned out ok. The best way I can describe the room is as an upscale dorm or small efficiency. There is no big screen TV, or king size pillow top bed, but the room was clean and functional, and overall, it was comfortable. It was just what I needed, at a price that was extremely affordable. For what I paid for one week here, I’ve spent for a single night more times than I’d like to remember.The location was very convenient, and only about 15 minutes from Dallas, and Ft. Worth. Restaurants, and grocery stores are close by, but I would recommend having a car at this location as there isn’t much within walking distance. The hotel doesn’t have many amenities, but the price and friendly service make up for the lack of a swimming pool, or fitness center. Which by the way the staff offered me a special rate at fitness center across the highway if I wanted to workout.Overall, the staff, and cost of lodging were what we liked best about the location. We were treated like we were staying at a 5 star hotel, but paying a 2 star price.What I liked least about the hotel were the beds. They are on the firm side, but the staff even helped us with that. Apparently they had some spare mattresses, and they went out of their way to stack a second mattress on top of the first which made for a good nights sleep.More</t>
   </si>
   <si>
-    <t>tiffeecanoe</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r66854097-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>66854097</t>
+  </si>
+  <si>
+    <t>06/08/2010</t>
+  </si>
+  <si>
+    <t>Horrible Experience!</t>
+  </si>
+  <si>
+    <t>Horrible experiences!
+This was our fourth stay at this location and it will be our last.
+We had three groups that made reservations.  Two of those reservations were canceled without a phone call and we didn't find out until we were trying to check in!  No apologies or compensations were offered.  The groups had to stay elsewhere and pay much more than they were expecting even though we had reservations for well over a month!
+There weren't enough towels in the room.  When we asked for more, we were told they would be in the room within an hour, however when we returned to our room later that night, they weren't.  Then, when I asked for them (after hours) I was lectured by the old man behind the desk about how I'm not supposed to ask for towels after 9pm.  When I told him I had asked for them at noon, he proceeded to lecture me saying that he had given them to me and not to ask after 9pm in the future!  Extremely rude since I had obviously followed the rules!
+On the second night, we returned to our room smelling like something had died in there!  We had no trash at that point, so it wasn't from us.  We were given, in my opinion, BS answers from the old man that had lectured me the previous night about the towels.  Apparently the place was full, so there was...Horrible experiences!This was our fourth stay at this location and it will be our last.We had three groups that made reservations.  Two of those reservations were canceled without a phone call and we didn't find out until we were trying to check in!  No apologies or compensations were offered.  The groups had to stay elsewhere and pay much more than they were expecting even though we had reservations for well over a month!There weren't enough towels in the room.  When we asked for more, we were told they would be in the room within an hour, however when we returned to our room later that night, they weren't.  Then, when I asked for them (after hours) I was lectured by the old man behind the desk about how I'm not supposed to ask for towels after 9pm.  When I told him I had asked for them at noon, he proceeded to lecture me saying that he had given them to me and not to ask after 9pm in the future!  Extremely rude since I had obviously followed the rules!On the second night, we returned to our room smelling like something had died in there!  We had no trash at that point, so it wasn't from us.  We were given, in my opinion, BS answers from the old man that had lectured me the previous night about the towels.  Apparently the place was full, so there was nothing he could do.  It was extremely unpleasant.  I don't know if the smell went away or we just got used to it.On a previous visit, we were actually locked out of our room because we didn't provide a copy of one of the guests drivers license, even though we asked about that at checkin.  There was no phone call or warning or note.  We were simply locked out of our room which is extremely unpleasant to find out when returning late at night and the desk is closed!Customer service policies needs to be taken a look at since it appears inconvenient for the current staff to assist any customers if there is an issue.The beds are horribly uncomfortable as well.  They're basically a piece of plywood with a thin mattress on them.  If you sit too hard, you'll hurt your tailbone. The walls are super thin.  You can hear everyone around you walking and opening doors all through the night.I know of at least 15-20 people that will not be staying here in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>Horrible experiences!
+This was our fourth stay at this location and it will be our last.
+We had three groups that made reservations.  Two of those reservations were canceled without a phone call and we didn't find out until we were trying to check in!  No apologies or compensations were offered.  The groups had to stay elsewhere and pay much more than they were expecting even though we had reservations for well over a month!
+There weren't enough towels in the room.  When we asked for more, we were told they would be in the room within an hour, however when we returned to our room later that night, they weren't.  Then, when I asked for them (after hours) I was lectured by the old man behind the desk about how I'm not supposed to ask for towels after 9pm.  When I told him I had asked for them at noon, he proceeded to lecture me saying that he had given them to me and not to ask after 9pm in the future!  Extremely rude since I had obviously followed the rules!
+On the second night, we returned to our room smelling like something had died in there!  We had no trash at that point, so it wasn't from us.  We were given, in my opinion, BS answers from the old man that had lectured me the previous night about the towels.  Apparently the place was full, so there was...Horrible experiences!This was our fourth stay at this location and it will be our last.We had three groups that made reservations.  Two of those reservations were canceled without a phone call and we didn't find out until we were trying to check in!  No apologies or compensations were offered.  The groups had to stay elsewhere and pay much more than they were expecting even though we had reservations for well over a month!There weren't enough towels in the room.  When we asked for more, we were told they would be in the room within an hour, however when we returned to our room later that night, they weren't.  Then, when I asked for them (after hours) I was lectured by the old man behind the desk about how I'm not supposed to ask for towels after 9pm.  When I told him I had asked for them at noon, he proceeded to lecture me saying that he had given them to me and not to ask after 9pm in the future!  Extremely rude since I had obviously followed the rules!On the second night, we returned to our room smelling like something had died in there!  We had no trash at that point, so it wasn't from us.  We were given, in my opinion, BS answers from the old man that had lectured me the previous night about the towels.  Apparently the place was full, so there was nothing he could do.  It was extremely unpleasant.  I don't know if the smell went away or we just got used to it.On a previous visit, we were actually locked out of our room because we didn't provide a copy of one of the guests drivers license, even though we asked about that at checkin.  There was no phone call or warning or note.  We were simply locked out of our room which is extremely unpleasant to find out when returning late at night and the desk is closed!Customer service policies needs to be taken a look at since it appears inconvenient for the current staff to assist any customers if there is an issue.The beds are horribly uncomfortable as well.  They're basically a piece of plywood with a thin mattress on them.  If you sit too hard, you'll hurt your tailbone. The walls are super thin.  You can hear everyone around you walking and opening doors all through the night.I know of at least 15-20 people that will not be staying here in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r54620186-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
+  </si>
+  <si>
+    <t>54620186</t>
+  </si>
+  <si>
+    <t>01/28/2010</t>
+  </si>
+  <si>
+    <t>Not treated like a guest!</t>
+  </si>
+  <si>
+    <t>First, I agree with all the other reviewers of this hotel.  It is designed as an extended stay facility best suited for transient workers.
+Knowing we were not necessarily part of the target audience, we booked here because of its close proximity to my son's home.  We were in town for our grandson's first birthday.
+The place was very clean and really was just as described and as we expected.
+However, we experienced a situation that was hard to believe.
+When we checked in, the desk clerk informed us that she was upgrading us to a larger room because they had no non-smoking rooms available of the size we had reserved.  Great!  No problem!  We went out for the evening with our family and returned at 8pm and find that our keys do not work.  The office is closed.  We call the office number from the phone outside the office and the office window opens and the night security/clerk presents us with an ultimatum authored by his manager.  We can stay in the larger room and pay the higher price or we can move immediately to a smaller room that had become available and pay the lower price.  I suggested this was not a way to treat a guest and we would be happy to move the next day since we had already been in the room, had unpacked and really didn't want to move right then.  He was adamant....First, I agree with all the other reviewers of this hotel.  It is designed as an extended stay facility best suited for transient workers.Knowing we were not necessarily part of the target audience, we booked here because of its close proximity to my son's home.  We were in town for our grandson's first birthday.The place was very clean and really was just as described and as we expected.However, we experienced a situation that was hard to believe.When we checked in, the desk clerk informed us that she was upgrading us to a larger room because they had no non-smoking rooms available of the size we had reserved.  Great!  No problem!  We went out for the evening with our family and returned at 8pm and find that our keys do not work.  The office is closed.  We call the office number from the phone outside the office and the office window opens and the night security/clerk presents us with an ultimatum authored by his manager.  We can stay in the larger room and pay the higher price or we can move immediately to a smaller room that had become available and pay the lower price.  I suggested this was not a way to treat a guest and we would be happy to move the next day since we had already been in the room, had unpacked and really didn't want to move right then.  He was adamant.  He even called the manager, who didn't ask to speak with us, but obviously reiterated his position.  As a matter of principle (it certainly wasn't the extra cost - $10 a day) I said we would move and we did.  When we got to the new room, the AC didn't appear to work.  Needless to say we were quite unhappy.  The night clerk just happened to call and we told him about the AC.  He said it had been working 30 minutes earlier and would come up, but we declined since my wife was already ready for bed.  After playing with the AC, I discovered the trick - put on the heat first and then switch to AC.  We were going to move out the next day, but thought better of it since the hotel had not failed to provide the lodging or some other service we paid for and thus we would just have to pay for a second place.  The rest of the stay was uneventful, but, because of the way we were treated, we will never stay there again.  I really can't figure out any upside for the manager in forcing us to move that first night.  We had occupied the room, so it would have to be cleaned again.  Now, we hadn't messed up the bed, so maybe he figured he only had to replace a towel and wash cloth to clean it, but, wait, how would he know the bed hadn't been disturbed unless he had entered the room while we were gone...Hmmm.  Actually, if he had asked to speak with me and explained some logical reason for us to move immediately we probably would have - we are very reasonable people, but instead he chose to have his night clerk/security person present us with an unappealing set of choices.  It wasn't a real big deal, but it's certainly no way to treat guests if you expect repeat business.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>First, I agree with all the other reviewers of this hotel.  It is designed as an extended stay facility best suited for transient workers.
+Knowing we were not necessarily part of the target audience, we booked here because of its close proximity to my son's home.  We were in town for our grandson's first birthday.
+The place was very clean and really was just as described and as we expected.
+However, we experienced a situation that was hard to believe.
+When we checked in, the desk clerk informed us that she was upgrading us to a larger room because they had no non-smoking rooms available of the size we had reserved.  Great!  No problem!  We went out for the evening with our family and returned at 8pm and find that our keys do not work.  The office is closed.  We call the office number from the phone outside the office and the office window opens and the night security/clerk presents us with an ultimatum authored by his manager.  We can stay in the larger room and pay the higher price or we can move immediately to a smaller room that had become available and pay the lower price.  I suggested this was not a way to treat a guest and we would be happy to move the next day since we had already been in the room, had unpacked and really didn't want to move right then.  He was adamant....First, I agree with all the other reviewers of this hotel.  It is designed as an extended stay facility best suited for transient workers.Knowing we were not necessarily part of the target audience, we booked here because of its close proximity to my son's home.  We were in town for our grandson's first birthday.The place was very clean and really was just as described and as we expected.However, we experienced a situation that was hard to believe.When we checked in, the desk clerk informed us that she was upgrading us to a larger room because they had no non-smoking rooms available of the size we had reserved.  Great!  No problem!  We went out for the evening with our family and returned at 8pm and find that our keys do not work.  The office is closed.  We call the office number from the phone outside the office and the office window opens and the night security/clerk presents us with an ultimatum authored by his manager.  We can stay in the larger room and pay the higher price or we can move immediately to a smaller room that had become available and pay the lower price.  I suggested this was not a way to treat a guest and we would be happy to move the next day since we had already been in the room, had unpacked and really didn't want to move right then.  He was adamant.  He even called the manager, who didn't ask to speak with us, but obviously reiterated his position.  As a matter of principle (it certainly wasn't the extra cost - $10 a day) I said we would move and we did.  When we got to the new room, the AC didn't appear to work.  Needless to say we were quite unhappy.  The night clerk just happened to call and we told him about the AC.  He said it had been working 30 minutes earlier and would come up, but we declined since my wife was already ready for bed.  After playing with the AC, I discovered the trick - put on the heat first and then switch to AC.  We were going to move out the next day, but thought better of it since the hotel had not failed to provide the lodging or some other service we paid for and thus we would just have to pay for a second place.  The rest of the stay was uneventful, but, because of the way we were treated, we will never stay there again.  I really can't figure out any upside for the manager in forcing us to move that first night.  We had occupied the room, so it would have to be cleaned again.  Now, we hadn't messed up the bed, so maybe he figured he only had to replace a towel and wash cloth to clean it, but, wait, how would he know the bed hadn't been disturbed unless he had entered the room while we were gone...Hmmm.  Actually, if he had asked to speak with me and explained some logical reason for us to move immediately we probably would have - we are very reasonable people, but instead he chose to have his night clerk/security person present us with an unappealing set of choices.  It wasn't a real big deal, but it's certainly no way to treat guests if you expect repeat business.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r35615969-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -984,9 +1383,6 @@
     <t>Had a pretty ok stay at Value Place in Trophy Club, TX this month.  It's amenities are VERY basic.  It was overall clean, but the carpets were very poorly vacuumed and I did find hair in the tub.  The provided towels were so small and thin they barely dried off a 7-year-old...so I recommend bringing your own.  They also don't seem to provide an additional roll of toilet paper on the cleaning day...so for four of us staying there, one roll of toilet paper did not go far...  The bedding is pretty horrible, was glad to have had sleeping bags along.   The TV is VERY tiny.   I've never stayed at an extended stay place before, but while visiting family, it made the most sense seeing we were more or less just sleeping there... I wasn't sure what exactly to expect and I suppose now I know that if I'm trying to acheive a certain level of comfort I must bring own bedding, pillows, towels, shampoo/conditioner, etc.  They provide a bar of soap and 2 plastic cups...and a laundry basket. 
 The price is right so I may stay at one again if I'm somewhere for a solid week or more, but it would require much more careful, thoughtful packing next time... not sure I want to go through the hassle of bringing so many extras...
 It was overall quiet with friendly fellow travelers.  The laundry facilities were very nice.  Internet, but...Had a pretty ok stay at Value Place in Trophy Club, TX this month.  It's amenities are VERY basic.  It was overall clean, but the carpets were very poorly vacuumed and I did find hair in the tub.  The provided towels were so small and thin they barely dried off a 7-year-old...so I recommend bringing your own.  They also don't seem to provide an additional roll of toilet paper on the cleaning day...so for four of us staying there, one roll of toilet paper did not go far...  The bedding is pretty horrible, was glad to have had sleeping bags along.   The TV is VERY tiny.   I've never stayed at an extended stay place before, but while visiting family, it made the most sense seeing we were more or less just sleeping there... I wasn't sure what exactly to expect and I suppose now I know that if I'm trying to acheive a certain level of comfort I must bring own bedding, pillows, towels, shampoo/conditioner, etc.  They provide a bar of soap and 2 plastic cups...and a laundry basket. The price is right so I may stay at one again if I'm somewhere for a solid week or more, but it would require much more careful, thoughtful packing next time... not sure I want to go through the hassle of bringing so many extras...It was overall quiet with friendly fellow travelers.  The laundry facilities were very nice.  Internet, but need an ether net cable to get online.  Late night security guy was very far from knowledgeable, not the sharpest tool in the shed...More</t>
-  </si>
-  <si>
-    <t>Mallyrose87</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d816266-r14003117-WoodSpring_Suites_Fort_Worth_Trophy_Club-Trophy_Club_Texas.html</t>
@@ -1518,44 +1914,44 @@
       <c r="A2" t="n">
         <v>55866</v>
       </c>
-      <c r="B2" t="n">
-        <v>182572</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1568,33 +1964,29 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55866</v>
       </c>
-      <c r="B3" t="n">
-        <v>182573</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>54</v>
@@ -1609,7 +2001,7 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>58</v>
@@ -1617,327 +2009,299 @@
       <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55866</v>
       </c>
-      <c r="B4" t="n">
-        <v>3599</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
       <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55866</v>
       </c>
-      <c r="B5" t="n">
-        <v>68444</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55866</v>
       </c>
-      <c r="B6" t="n">
-        <v>82564</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55866</v>
       </c>
-      <c r="B7" t="n">
-        <v>182574</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
         <v>2</v>
       </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55866</v>
       </c>
-      <c r="B8" t="n">
-        <v>182575</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
         <v>59</v>
@@ -1954,64 +2318,60 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55866</v>
       </c>
-      <c r="B9" t="n">
-        <v>182576</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2019,135 +2379,123 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55866</v>
       </c>
-      <c r="B10" t="n">
-        <v>15564</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55866</v>
       </c>
-      <c r="B11" t="n">
-        <v>36321</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>4</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2155,120 +2503,118 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55866</v>
       </c>
-      <c r="B12" t="n">
-        <v>182577</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>105</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>55866</v>
       </c>
-      <c r="B13" t="n">
-        <v>182578</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
+        <v>121</v>
+      </c>
+      <c r="P13" t="n">
         <v>3</v>
       </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
@@ -2281,141 +2627,117 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>55866</v>
       </c>
-      <c r="B14" t="n">
-        <v>182579</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>140</v>
-      </c>
-      <c r="X14" t="s">
-        <v>141</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>55866</v>
       </c>
-      <c r="B15" t="n">
-        <v>182580</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2423,66 +2745,60 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>55866</v>
       </c>
-      <c r="B16" t="n">
-        <v>67233</v>
-      </c>
-      <c r="C16" t="s">
-        <v>150</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>141</v>
+      </c>
       <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2490,70 +2806,62 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>55866</v>
       </c>
-      <c r="B17" t="n">
-        <v>182581</v>
-      </c>
-      <c r="C17" t="s">
-        <v>156</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2561,67 +2869,57 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>55866</v>
       </c>
-      <c r="B18" t="n">
-        <v>11667</v>
-      </c>
-      <c r="C18" t="s">
-        <v>163</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
       </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2632,63 +2930,59 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>55866</v>
       </c>
-      <c r="B19" t="n">
-        <v>14861</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2703,141 +2997,117 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>55866</v>
       </c>
-      <c r="B20" t="n">
-        <v>182582</v>
-      </c>
-      <c r="C20" t="s">
-        <v>177</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>55866</v>
       </c>
-      <c r="B21" t="n">
-        <v>182583</v>
-      </c>
-      <c r="C21" t="s">
-        <v>185</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>192</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2845,138 +3115,128 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>55866</v>
       </c>
-      <c r="B22" t="n">
-        <v>182584</v>
-      </c>
-      <c r="C22" t="s">
-        <v>193</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
         <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>178</v>
+      </c>
+      <c r="X22" t="s">
+        <v>179</v>
+      </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>55866</v>
       </c>
-      <c r="B23" t="n">
-        <v>63498</v>
-      </c>
-      <c r="C23" t="s">
-        <v>201</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s">
-        <v>112</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
         <v>5</v>
       </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -2984,63 +3244,59 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>178</v>
+      </c>
+      <c r="X23" t="s">
+        <v>179</v>
+      </c>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>55866</v>
       </c>
-      <c r="B24" t="n">
-        <v>12055</v>
-      </c>
-      <c r="C24" t="s">
-        <v>208</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>214</v>
-      </c>
-      <c r="O24" t="s">
-        <v>74</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="n">
         <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
         <v>5</v>
@@ -3055,54 +3311,54 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>178</v>
+      </c>
+      <c r="X24" t="s">
+        <v>179</v>
+      </c>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>55866</v>
       </c>
-      <c r="B25" t="n">
-        <v>87142</v>
-      </c>
-      <c r="C25" t="s">
-        <v>216</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s">
         <v>59</v>
@@ -3121,7 +3377,7 @@
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3129,136 +3385,116 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>55866</v>
       </c>
-      <c r="B26" t="n">
-        <v>182585</v>
-      </c>
-      <c r="C26" t="s">
-        <v>222</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>228</v>
-      </c>
-      <c r="O26" t="s">
-        <v>74</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>229</v>
-      </c>
-      <c r="X26" t="s">
-        <v>230</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>55866</v>
       </c>
-      <c r="B27" t="n">
-        <v>35028</v>
-      </c>
-      <c r="C27" t="s">
-        <v>232</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
         <v>5</v>
       </c>
@@ -3272,219 +3508,195 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>238</v>
-      </c>
-      <c r="X27" t="s">
-        <v>239</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>55866</v>
       </c>
-      <c r="B28" t="n">
-        <v>182586</v>
-      </c>
-      <c r="C28" t="s">
-        <v>241</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" t="s">
-        <v>247</v>
-      </c>
-      <c r="O28" t="s">
-        <v>59</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>248</v>
-      </c>
-      <c r="X28" t="s">
-        <v>249</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>55866</v>
       </c>
-      <c r="B29" t="n">
-        <v>7320</v>
-      </c>
-      <c r="C29" t="s">
-        <v>251</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="O29" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
         <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>258</v>
-      </c>
-      <c r="X29" t="s">
-        <v>259</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>55866</v>
       </c>
-      <c r="B30" t="n">
-        <v>32648</v>
-      </c>
-      <c r="C30" t="s">
-        <v>261</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
       </c>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3493,67 +3705,59 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>268</v>
-      </c>
-      <c r="X30" t="s">
-        <v>269</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>55866</v>
       </c>
-      <c r="B31" t="n">
-        <v>182587</v>
-      </c>
-      <c r="C31" t="s">
-        <v>271</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="O31" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
         <v>5</v>
@@ -3571,70 +3775,66 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>55866</v>
       </c>
-      <c r="B32" t="n">
-        <v>182588</v>
-      </c>
-      <c r="C32" t="s">
-        <v>278</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="J32" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="K32" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="L32" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="O32" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3642,62 +3842,66 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>55866</v>
       </c>
-      <c r="B33" t="n">
-        <v>182589</v>
-      </c>
-      <c r="C33" t="s">
-        <v>286</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="J33" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="O33" t="s">
-        <v>112</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3705,70 +3909,66 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>55866</v>
       </c>
-      <c r="B34" t="n">
-        <v>182590</v>
-      </c>
-      <c r="C34" t="s">
-        <v>294</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="O34" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3776,70 +3976,66 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>55866</v>
       </c>
-      <c r="B35" t="n">
-        <v>62552</v>
-      </c>
-      <c r="C35" t="s">
-        <v>302</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="J35" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3847,62 +4043,60 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>55866</v>
       </c>
-      <c r="B36" t="n">
-        <v>182591</v>
-      </c>
-      <c r="C36" t="s">
-        <v>310</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="K36" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="O36" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
       <c r="S36" t="n">
         <v>1</v>
       </c>
@@ -3916,7 +4110,1637 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J37" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" t="s">
+        <v>271</v>
+      </c>
+      <c r="L37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>276</v>
+      </c>
+      <c r="J38" t="s">
+        <v>277</v>
+      </c>
+      <c r="K38" t="s">
+        <v>278</v>
+      </c>
+      <c r="L38" t="s">
+        <v>279</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>280</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>282</v>
+      </c>
+      <c r="J39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" t="s">
+        <v>284</v>
+      </c>
+      <c r="L39" t="s">
+        <v>285</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>280</v>
+      </c>
+      <c r="O39" t="s">
+        <v>141</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>286</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" t="s">
+        <v>288</v>
+      </c>
+      <c r="K40" t="s">
+        <v>289</v>
+      </c>
+      <c r="L40" t="s">
+        <v>290</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>291</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>294</v>
+      </c>
+      <c r="J41" t="s">
+        <v>295</v>
+      </c>
+      <c r="K41" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s">
+        <v>297</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>291</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>299</v>
+      </c>
+      <c r="J42" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" t="s">
+        <v>302</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>303</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>304</v>
+      </c>
+      <c r="X42" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>308</v>
+      </c>
+      <c r="J43" t="s">
+        <v>309</v>
+      </c>
+      <c r="K43" t="s">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s">
+        <v>311</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>280</v>
+      </c>
+      <c r="O43" t="s">
+        <v>141</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>312</v>
+      </c>
+      <c r="X43" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>316</v>
+      </c>
+      <c r="J44" t="s">
         <v>317</v>
+      </c>
+      <c r="K44" t="s">
+        <v>318</v>
+      </c>
+      <c r="L44" t="s">
+        <v>319</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>320</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>321</v>
+      </c>
+      <c r="X44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>324</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>325</v>
+      </c>
+      <c r="J45" t="s">
+        <v>326</v>
+      </c>
+      <c r="K45" t="s">
+        <v>327</v>
+      </c>
+      <c r="L45" t="s">
+        <v>328</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>320</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>329</v>
+      </c>
+      <c r="X45" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>332</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>333</v>
+      </c>
+      <c r="J46" t="s">
+        <v>334</v>
+      </c>
+      <c r="K46" t="s">
+        <v>335</v>
+      </c>
+      <c r="L46" t="s">
+        <v>336</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>337</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>338</v>
+      </c>
+      <c r="X46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>341</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>342</v>
+      </c>
+      <c r="J47" t="s">
+        <v>343</v>
+      </c>
+      <c r="K47" t="s">
+        <v>344</v>
+      </c>
+      <c r="L47" t="s">
+        <v>345</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>346</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>347</v>
+      </c>
+      <c r="X47" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>350</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>351</v>
+      </c>
+      <c r="J48" t="s">
+        <v>352</v>
+      </c>
+      <c r="K48" t="s">
+        <v>353</v>
+      </c>
+      <c r="L48" t="s">
+        <v>354</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>346</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>355</v>
+      </c>
+      <c r="X48" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>358</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>359</v>
+      </c>
+      <c r="J49" t="s">
+        <v>360</v>
+      </c>
+      <c r="K49" t="s">
+        <v>361</v>
+      </c>
+      <c r="L49" t="s">
+        <v>362</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>363</v>
+      </c>
+      <c r="O49" t="s">
+        <v>141</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>364</v>
+      </c>
+      <c r="X49" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>367</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>368</v>
+      </c>
+      <c r="J50" t="s">
+        <v>369</v>
+      </c>
+      <c r="K50" t="s">
+        <v>370</v>
+      </c>
+      <c r="L50" t="s">
+        <v>371</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>372</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>373</v>
+      </c>
+      <c r="X50" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>376</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>377</v>
+      </c>
+      <c r="J51" t="s">
+        <v>378</v>
+      </c>
+      <c r="K51" t="s">
+        <v>379</v>
+      </c>
+      <c r="L51" t="s">
+        <v>380</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>381</v>
+      </c>
+      <c r="O51" t="s">
+        <v>121</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" t="s">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s">
+        <v>385</v>
+      </c>
+      <c r="L52" t="s">
+        <v>386</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>381</v>
+      </c>
+      <c r="O52" t="s">
+        <v>141</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>388</v>
+      </c>
+      <c r="J53" t="s">
+        <v>389</v>
+      </c>
+      <c r="K53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s">
+        <v>391</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>392</v>
+      </c>
+      <c r="O53" t="s">
+        <v>121</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>395</v>
+      </c>
+      <c r="J54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K54" t="s">
+        <v>397</v>
+      </c>
+      <c r="L54" t="s">
+        <v>398</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>399</v>
+      </c>
+      <c r="O54" t="s">
+        <v>141</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>401</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>402</v>
+      </c>
+      <c r="J55" t="s">
+        <v>403</v>
+      </c>
+      <c r="K55" t="s">
+        <v>404</v>
+      </c>
+      <c r="L55" t="s">
+        <v>405</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>406</v>
+      </c>
+      <c r="O55" t="s">
+        <v>141</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>408</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>409</v>
+      </c>
+      <c r="J56" t="s">
+        <v>410</v>
+      </c>
+      <c r="K56" t="s">
+        <v>411</v>
+      </c>
+      <c r="L56" t="s">
+        <v>412</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>413</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>416</v>
+      </c>
+      <c r="J57" t="s">
+        <v>417</v>
+      </c>
+      <c r="K57" t="s">
+        <v>418</v>
+      </c>
+      <c r="L57" t="s">
+        <v>419</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>413</v>
+      </c>
+      <c r="O57" t="s">
+        <v>260</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>421</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>422</v>
+      </c>
+      <c r="J58" t="s">
+        <v>423</v>
+      </c>
+      <c r="K58" t="s">
+        <v>424</v>
+      </c>
+      <c r="L58" t="s">
+        <v>425</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>426</v>
+      </c>
+      <c r="O58" t="s">
+        <v>121</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>428</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>429</v>
+      </c>
+      <c r="J59" t="s">
+        <v>430</v>
+      </c>
+      <c r="K59" t="s">
+        <v>431</v>
+      </c>
+      <c r="L59" t="s">
+        <v>432</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>433</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55866</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>435</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>436</v>
+      </c>
+      <c r="J60" t="s">
+        <v>437</v>
+      </c>
+      <c r="K60" t="s">
+        <v>438</v>
+      </c>
+      <c r="L60" t="s">
+        <v>439</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>440</v>
+      </c>
+      <c r="O60" t="s">
+        <v>121</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
